--- a/Документация/WebTours Профиль нагрузки_Журавлев.xlsx
+++ b/Документация/WebTours Профиль нагрузки_Журавлев.xlsx
@@ -14,7 +14,7 @@
   </sheets>
   <calcPr calcId="125725"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="30" r:id="rId5"/>
   </pivotCaches>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -224,7 +224,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="119">
   <si>
     <t>Вход в систему</t>
   </si>
@@ -568,12 +568,6 @@
     <t>welcome_new_usr</t>
   </si>
   <si>
-    <t>01_Login</t>
-  </si>
-  <si>
-    <t>02_FindTicket</t>
-  </si>
-  <si>
     <t>03_BuyTicket</t>
   </si>
   <si>
@@ -581,6 +575,12 @@
   </si>
   <si>
     <t>05_DeleteBooking</t>
+  </si>
+  <si>
+    <t>01_FindTicket</t>
+  </si>
+  <si>
+    <t>02_Login</t>
   </si>
 </sst>
 </file>
@@ -826,7 +826,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="42">
+  <fills count="43">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1060,8 +1060,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="26">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -1379,15 +1385,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1436,7 +1433,7 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1497,7 +1494,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="44" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1554,15 +1550,11 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="41" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1572,6 +1564,13 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="45">
     <cellStyle name="20% - Акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1622,6 +1621,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFCCCC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1634,9 +1638,9 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="AZ" refreshedDate="44811.769538541666" createdVersion="6" refreshedVersion="3" minRefreshableVersion="3" recordCount="29">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="AZ" refreshedDate="44814.459155902776" createdVersion="6" refreshedVersion="3" minRefreshableVersion="3" recordCount="30">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:H30" sheet="Автоматизированный расчет"/>
+    <worksheetSource ref="A1:H31" sheet="Автоматизированный расчет"/>
   </cacheSource>
   <cacheFields count="8">
     <cacheField name="Script name" numFmtId="0">
@@ -1648,13 +1652,13 @@
         <s v="click_sign_up_now"/>
         <s v="data_usr"/>
         <s v="welcome_new_usr"/>
+        <s v="click_flights"/>
+        <s v="find_ticket"/>
+        <s v="choice_ticket"/>
         <s v="logout"/>
         <s v="login"/>
         <s v="click_Itinerary"/>
         <s v="delete_booking"/>
-        <s v="click_flights"/>
-        <s v="find_ticket"/>
-        <s v="choice_ticket"/>
         <s v="buy_ticket"/>
         <m/>
         <s v="find_ticket " u="1"/>
@@ -1679,16 +1683,16 @@
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="3"/>
     </cacheField>
     <cacheField name="pacing" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="51" maxValue="129"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="50" maxValue="195"/>
     </cacheField>
     <cacheField name="одним пользователем в минуту" numFmtId="2">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.46511627906976744" maxValue="1.1764705882352942"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.30769230769230771" maxValue="1.2"/>
     </cacheField>
     <cacheField name="Длительность ступени" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="20" maxValue="20"/>
     </cacheField>
     <cacheField name="Итого" numFmtId="1">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="18.604651162790699" maxValue="55.384615384615387"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="12.307692307692308" maxValue="55.384615384615387"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -1700,7 +1704,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="29">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="30">
   <r>
     <s v="04_NewUsr"/>
     <x v="0"/>
@@ -1752,6 +1756,36 @@
     <n v="30.76923076923077"/>
   </r>
   <r>
+    <s v="04_NewUsr"/>
+    <x v="5"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="78"/>
+    <n v="0.76923076923076927"/>
+    <n v="20"/>
+    <n v="30.76923076923077"/>
+  </r>
+  <r>
+    <s v="04_NewUsr"/>
+    <x v="6"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="78"/>
+    <n v="0.76923076923076927"/>
+    <n v="20"/>
+    <n v="30.76923076923077"/>
+  </r>
+  <r>
+    <s v="04_NewUsr"/>
+    <x v="7"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="78"/>
+    <n v="0.76923076923076927"/>
+    <n v="20"/>
+    <n v="30.76923076923077"/>
+  </r>
+  <r>
     <s v="05_DeleteBooking"/>
     <x v="0"/>
     <n v="1"/>
@@ -1763,7 +1797,7 @@
   </r>
   <r>
     <s v="05_DeleteBooking"/>
-    <x v="5"/>
+    <x v="8"/>
     <n v="1"/>
     <n v="1"/>
     <n v="51"/>
@@ -1773,7 +1807,17 @@
   </r>
   <r>
     <s v="05_DeleteBooking"/>
-    <x v="6"/>
+    <x v="9"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="51"/>
+    <n v="1.1764705882352942"/>
+    <n v="20"/>
+    <n v="23.529411764705884"/>
+  </r>
+  <r>
+    <s v="05_DeleteBooking"/>
+    <x v="10"/>
     <n v="1"/>
     <n v="1"/>
     <n v="51"/>
@@ -1784,16 +1828,6 @@
   <r>
     <s v="05_DeleteBooking"/>
     <x v="7"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="51"/>
-    <n v="1.1764705882352942"/>
-    <n v="20"/>
-    <n v="23.529411764705884"/>
-  </r>
-  <r>
-    <s v="05_DeleteBooking"/>
-    <x v="4"/>
     <n v="1"/>
     <n v="1"/>
     <n v="51"/>
@@ -1813,6 +1847,26 @@
   </r>
   <r>
     <s v="03_BuyTicket"/>
+    <x v="8"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="65"/>
+    <n v="0.92307692307692313"/>
+    <n v="20"/>
+    <n v="55.384615384615387"/>
+  </r>
+  <r>
+    <s v="03_BuyTicket"/>
+    <x v="4"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="65"/>
+    <n v="0.92307692307692313"/>
+    <n v="20"/>
+    <n v="55.384615384615387"/>
+  </r>
+  <r>
+    <s v="03_BuyTicket"/>
     <x v="5"/>
     <n v="1"/>
     <n v="3"/>
@@ -1823,27 +1877,7 @@
   </r>
   <r>
     <s v="03_BuyTicket"/>
-    <x v="8"/>
-    <n v="1"/>
-    <n v="3"/>
-    <n v="65"/>
-    <n v="0.92307692307692313"/>
-    <n v="20"/>
-    <n v="55.384615384615387"/>
-  </r>
-  <r>
-    <s v="03_BuyTicket"/>
-    <x v="9"/>
-    <n v="1"/>
-    <n v="3"/>
-    <n v="65"/>
-    <n v="0.92307692307692313"/>
-    <n v="20"/>
-    <n v="55.384615384615387"/>
-  </r>
-  <r>
-    <s v="03_BuyTicket"/>
-    <x v="10"/>
+    <x v="6"/>
     <n v="1"/>
     <n v="3"/>
     <n v="65"/>
@@ -1863,7 +1897,7 @@
   </r>
   <r>
     <s v="03_BuyTicket"/>
-    <x v="6"/>
+    <x v="9"/>
     <n v="1"/>
     <n v="3"/>
     <n v="65"/>
@@ -1872,114 +1906,94 @@
     <n v="55.384615384615387"/>
   </r>
   <r>
-    <m/>
-    <x v="12"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="01_Login"/>
+    <s v="01_FindTicket"/>
     <x v="0"/>
     <n v="1"/>
     <n v="2"/>
-    <n v="129"/>
-    <n v="0.46511627906976744"/>
+    <n v="195"/>
+    <n v="0.30769230769230771"/>
     <n v="20"/>
-    <n v="18.604651162790699"/>
+    <n v="12.307692307692308"/>
   </r>
   <r>
-    <s v="01_Login"/>
+    <s v="01_FindTicket"/>
+    <x v="8"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="195"/>
+    <n v="0.30769230769230771"/>
+    <n v="20"/>
+    <n v="12.307692307692308"/>
+  </r>
+  <r>
+    <s v="01_FindTicket"/>
+    <x v="4"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="195"/>
+    <n v="0.30769230769230771"/>
+    <n v="20"/>
+    <n v="12.307692307692308"/>
+  </r>
+  <r>
+    <s v="01_FindTicket"/>
     <x v="5"/>
     <n v="1"/>
     <n v="2"/>
-    <n v="129"/>
-    <n v="0.46511627906976744"/>
+    <n v="195"/>
+    <n v="0.30769230769230771"/>
     <n v="20"/>
-    <n v="18.604651162790699"/>
+    <n v="12.307692307692308"/>
   </r>
   <r>
-    <s v="01_Login"/>
-    <x v="6"/>
+    <s v="01_FindTicket"/>
+    <x v="9"/>
     <n v="1"/>
     <n v="2"/>
-    <n v="129"/>
-    <n v="0.46511627906976744"/>
+    <n v="195"/>
+    <n v="0.30769230769230771"/>
     <n v="20"/>
-    <n v="18.604651162790699"/>
+    <n v="12.307692307692308"/>
   </r>
   <r>
-    <s v="01_Login"/>
-    <x v="4"/>
+    <s v="01_FindTicket"/>
+    <x v="7"/>
     <n v="1"/>
     <n v="2"/>
-    <n v="129"/>
-    <n v="0.46511627906976744"/>
+    <n v="195"/>
+    <n v="0.30769230769230771"/>
     <n v="20"/>
-    <n v="18.604651162790699"/>
+    <n v="12.307692307692308"/>
   </r>
   <r>
-    <s v="02_FindTicket"/>
+    <s v="02_Login"/>
     <x v="0"/>
     <n v="1"/>
     <n v="2"/>
-    <n v="58"/>
-    <n v="1.0344827586206897"/>
+    <n v="50"/>
+    <n v="1.2"/>
     <n v="20"/>
-    <n v="41.379310344827587"/>
+    <n v="48"/>
   </r>
   <r>
-    <s v="02_FindTicket"/>
-    <x v="5"/>
-    <n v="1"/>
-    <n v="2"/>
-    <n v="58"/>
-    <n v="1.0344827586206897"/>
-    <n v="20"/>
-    <n v="41.379310344827587"/>
-  </r>
-  <r>
-    <s v="02_FindTicket"/>
+    <s v="02_Login"/>
     <x v="8"/>
     <n v="1"/>
     <n v="2"/>
-    <n v="58"/>
-    <n v="1.0344827586206897"/>
+    <n v="50"/>
+    <n v="1.2"/>
     <n v="20"/>
-    <n v="41.379310344827587"/>
+    <n v="48"/>
   </r>
   <r>
-    <s v="02_FindTicket"/>
-    <x v="9"/>
+    <s v="02_Login"/>
+    <x v="7"/>
     <n v="1"/>
     <n v="2"/>
-    <n v="58"/>
-    <n v="1.0344827586206897"/>
+    <n v="50"/>
+    <n v="1.2"/>
     <n v="20"/>
-    <n v="41.379310344827587"/>
-  </r>
-  <r>
-    <s v="02_FindTicket"/>
-    <x v="10"/>
-    <n v="1"/>
-    <n v="2"/>
-    <n v="58"/>
-    <n v="1.0344827586206897"/>
-    <n v="20"/>
-    <n v="41.379310344827587"/>
-  </r>
-  <r>
-    <s v="02_FindTicket"/>
-    <x v="4"/>
-    <n v="1"/>
-    <n v="2"/>
-    <n v="58"/>
-    <n v="1.0344827586206897"/>
-    <n v="20"/>
-    <n v="41.379310344827587"/>
+    <n v="48"/>
   </r>
   <r>
     <m/>
@@ -1995,8 +2009,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="3" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="I1:J14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица2" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="3" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="J1:K14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
@@ -2016,16 +2030,16 @@
         <item x="1"/>
         <item x="2"/>
         <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
         <item x="7"/>
         <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="4"/>
         <item m="1" x="13"/>
-        <item x="10"/>
+        <item x="6"/>
         <item x="11"/>
         <item m="1" x="22"/>
-        <item x="9"/>
+        <item x="5"/>
         <item h="1" x="12"/>
         <item t="default"/>
       </items>
@@ -2354,7 +2368,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2362,10 +2376,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X56"/>
+  <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -2377,9 +2391,8 @@
     <col min="5" max="5" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="9" max="9" width="18.5703125" customWidth="1"/>
-    <col min="10" max="10" width="21.5703125" customWidth="1"/>
-    <col min="11" max="11" width="18.7109375" customWidth="1"/>
+    <col min="9" max="10" width="18.5703125" customWidth="1"/>
+    <col min="11" max="11" width="21.5703125" customWidth="1"/>
     <col min="12" max="12" width="27.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="35.85546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="19.85546875" bestFit="1" customWidth="1"/>
@@ -2411,10 +2424,10 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="J1" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>49</v>
       </c>
       <c r="M1" t="s">
@@ -2444,7 +2457,7 @@
       <c r="U1" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="V1" s="36" t="s">
+      <c r="V1" s="35" t="s">
         <v>47</v>
       </c>
       <c r="X1" t="s">
@@ -2452,21 +2465,21 @@
       </c>
     </row>
     <row r="2" spans="1:24">
-      <c r="A2" s="61" t="s">
-        <v>117</v>
-      </c>
-      <c r="B2" s="30" t="s">
+      <c r="A2" s="60" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" s="73" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="64">
+      <c r="C2" s="74">
         <v>1</v>
       </c>
-      <c r="D2" s="65">
-        <f t="shared" ref="D2:D11" si="0">VLOOKUP(A2,$M$1:$W$8,6,FALSE)</f>
+      <c r="D2" s="62">
+        <f>VLOOKUP(A2,$M$1:$W$11,6,FALSE)</f>
         <v>2</v>
       </c>
       <c r="E2">
-        <f>VLOOKUP(A2,$M$1:$W$8,5,FALSE)</f>
+        <f>VLOOKUP(A2,$M$1:$W$11,5,FALSE)</f>
         <v>78</v>
       </c>
       <c r="F2" s="21">
@@ -2480,68 +2493,67 @@
         <f>D2*F2*G2</f>
         <v>30.76923076923077</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="J2" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="J2" s="15">
-        <v>169.66721942617033</v>
-      </c>
-      <c r="K2" s="15"/>
+      <c r="K2" s="15">
+        <v>169.99095022624437</v>
+      </c>
       <c r="M2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="N2" s="24">
-        <v>1.2182999999999999</v>
+        <v>2.173</v>
       </c>
       <c r="O2" s="24">
-        <v>14.980499999999999</v>
-      </c>
-      <c r="P2" s="31">
+        <v>19.747</v>
+      </c>
+      <c r="P2" s="30">
         <f>N2+O2</f>
-        <v>16.198799999999999</v>
+        <v>21.92</v>
       </c>
       <c r="Q2" s="18">
-        <v>129</v>
+        <v>195</v>
       </c>
       <c r="R2" s="18">
         <v>2</v>
       </c>
       <c r="S2" s="19">
         <f>60/(Q2)</f>
-        <v>0.46511627906976744</v>
+        <v>0.30769230769230771</v>
       </c>
       <c r="T2" s="22">
         <v>20</v>
       </c>
       <c r="U2" s="23">
         <f>ROUND(R2*S2*T2,0)</f>
-        <v>19</v>
-      </c>
-      <c r="V2" s="37">
+        <v>12</v>
+      </c>
+      <c r="V2" s="36">
         <f>R2/W$2</f>
         <v>0.2</v>
       </c>
       <c r="W2">
-        <f>SUM(R2:R6)</f>
+        <f>SUM(R2:R8)</f>
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:24">
-      <c r="A3" s="61" t="s">
-        <v>117</v>
-      </c>
-      <c r="B3" s="30" t="s">
+      <c r="A3" s="60" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" s="73" t="s">
         <v>92</v>
       </c>
-      <c r="C3" s="64">
+      <c r="C3" s="74">
         <v>1</v>
       </c>
-      <c r="D3" s="66">
-        <f t="shared" si="0"/>
+      <c r="D3" s="63">
+        <f>VLOOKUP(A3,$M$1:$W$11,6,FALSE)</f>
         <v>2</v>
       </c>
       <c r="E3">
-        <f>VLOOKUP(A3,$M$1:$W$8,5,FALSE)</f>
+        <f>VLOOKUP(A3,$M$1:$W$11,5,FALSE)</f>
         <v>78</v>
       </c>
       <c r="F3" s="21">
@@ -2555,86 +2567,84 @@
         <f>D3*F3*G3</f>
         <v>30.76923076923077</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="J3" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="J3" s="15">
+      <c r="K3" s="15">
         <v>30.76923076923077</v>
       </c>
-      <c r="K3" s="15"/>
       <c r="M3" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="N3" s="24">
-        <v>1.6716</v>
+        <v>1.1164000000000001</v>
       </c>
       <c r="O3" s="24">
-        <v>14.953900000000001</v>
-      </c>
-      <c r="P3" s="31">
-        <f t="shared" ref="P3:P6" si="1">N3+O3</f>
-        <v>16.625500000000002</v>
-      </c>
-      <c r="Q3" s="38">
-        <v>58</v>
+        <v>9.9761000000000006</v>
+      </c>
+      <c r="P3" s="30">
+        <f t="shared" ref="P3:P9" si="0">N3+O3</f>
+        <v>11.092500000000001</v>
+      </c>
+      <c r="Q3" s="37">
+        <v>50</v>
       </c>
       <c r="R3" s="18">
         <v>2</v>
       </c>
       <c r="S3" s="19">
-        <f t="shared" ref="S3:S5" si="2">60/(Q3)</f>
-        <v>1.0344827586206897</v>
+        <f t="shared" ref="S3:S5" si="1">60/(Q3)</f>
+        <v>1.2</v>
       </c>
       <c r="T3" s="22">
         <v>20</v>
       </c>
       <c r="U3" s="23">
-        <f t="shared" ref="U3:U5" si="3">ROUND(R3*S3*T3,0)</f>
-        <v>41</v>
-      </c>
-      <c r="V3" s="37">
+        <f t="shared" ref="U3:U5" si="2">ROUND(R3*S3*T3,0)</f>
+        <v>48</v>
+      </c>
+      <c r="V3" s="36">
         <f>R3/W$2</f>
         <v>0.2</v>
       </c>
     </row>
     <row r="4" spans="1:24">
-      <c r="A4" s="61" t="s">
-        <v>117</v>
-      </c>
-      <c r="B4" s="30" t="s">
+      <c r="A4" s="60" t="s">
+        <v>115</v>
+      </c>
+      <c r="B4" s="73" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="64">
+      <c r="C4" s="74">
         <v>1</v>
       </c>
-      <c r="D4" s="66">
-        <f t="shared" si="0"/>
+      <c r="D4" s="63">
+        <f>VLOOKUP(A4,$M$1:$W$11,6,FALSE)</f>
         <v>2</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E11" si="4">VLOOKUP(A4,$M$1:$W$8,5,FALSE)</f>
+        <f>VLOOKUP(A4,$M$1:$W$11,5,FALSE)</f>
         <v>78</v>
       </c>
       <c r="F4" s="21">
-        <f t="shared" ref="F4:F29" si="5">60/E4*C4</f>
+        <f t="shared" ref="F4:F30" si="3">60/E4*C4</f>
         <v>0.76923076923076927</v>
       </c>
       <c r="G4">
         <v>20</v>
       </c>
       <c r="H4" s="20">
-        <f t="shared" ref="H4:H29" si="6">D4*F4*G4</f>
+        <f t="shared" ref="H4:H30" si="4">D4*F4*G4</f>
         <v>30.76923076923077</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="J4" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="J4" s="15">
+      <c r="K4" s="15">
         <v>30.76923076923077</v>
       </c>
-      <c r="K4" s="15"/>
       <c r="M4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="N4" s="24">
         <v>1.9841</v>
@@ -2642,141 +2652,139 @@
       <c r="O4" s="24">
         <v>34.970599999999997</v>
       </c>
-      <c r="P4" s="31">
-        <f t="shared" si="1"/>
+      <c r="P4" s="30">
+        <f t="shared" si="0"/>
         <v>36.954699999999995</v>
       </c>
-      <c r="Q4" s="38">
+      <c r="Q4" s="37">
         <v>65</v>
       </c>
       <c r="R4" s="18">
         <v>3</v>
       </c>
       <c r="S4" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.92307692307692313</v>
       </c>
       <c r="T4" s="22">
         <v>20</v>
       </c>
       <c r="U4" s="23">
+        <f t="shared" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="V4" s="36">
+        <f t="shared" ref="V4:V5" si="5">R4/W$2</f>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
+      <c r="A5" s="60" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5" s="73" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" s="74">
+        <v>1</v>
+      </c>
+      <c r="D5" s="63">
+        <f>VLOOKUP(A5,$M$1:$W$11,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <f>VLOOKUP(A5,$M$1:$W$11,5,FALSE)</f>
+        <v>78</v>
+      </c>
+      <c r="F5" s="21">
         <f t="shared" si="3"/>
-        <v>55</v>
-      </c>
-      <c r="V4" s="37">
-        <f t="shared" ref="V4:V5" si="7">R4/W$2</f>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24">
-      <c r="A5" s="61" t="s">
-        <v>117</v>
-      </c>
-      <c r="B5" s="30" t="s">
-        <v>113</v>
-      </c>
-      <c r="C5" s="64">
-        <v>1</v>
-      </c>
-      <c r="D5" s="66">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="4"/>
-        <v>78</v>
-      </c>
-      <c r="F5" s="21">
-        <f t="shared" si="5"/>
         <v>0.76923076923076927</v>
       </c>
       <c r="G5">
         <v>20</v>
       </c>
       <c r="H5" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>30.76923076923077</v>
       </c>
-      <c r="I5" s="17" t="s">
+      <c r="J5" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="J5" s="15">
+      <c r="K5" s="15">
         <v>30.76923076923077</v>
       </c>
-      <c r="K5" s="15"/>
       <c r="M5" t="s">
-        <v>117</v>
-      </c>
-      <c r="N5" s="24">
-        <v>1.4057999999999999</v>
-      </c>
-      <c r="O5" s="24">
-        <v>19.809799999999999</v>
-      </c>
-      <c r="P5" s="31">
+        <v>115</v>
+      </c>
+      <c r="N5" s="71">
+        <v>2.234</v>
+      </c>
+      <c r="O5" s="71">
+        <v>35.0687</v>
+      </c>
+      <c r="P5" s="72">
+        <f t="shared" si="0"/>
+        <v>37.302700000000002</v>
+      </c>
+      <c r="Q5" s="70">
+        <v>78</v>
+      </c>
+      <c r="R5" s="70">
+        <v>2</v>
+      </c>
+      <c r="S5" s="19">
         <f t="shared" si="1"/>
-        <v>21.215599999999998</v>
-      </c>
-      <c r="Q5" s="18">
-        <v>78</v>
-      </c>
-      <c r="R5" s="18">
-        <v>2</v>
-      </c>
-      <c r="S5" s="19">
-        <f t="shared" si="2"/>
         <v>0.76923076923076927</v>
       </c>
       <c r="T5" s="22">
         <v>20</v>
       </c>
       <c r="U5" s="23">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="V5" s="36">
+        <f t="shared" si="5"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
+      <c r="A6" s="60" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6" s="73" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="74">
+        <v>1</v>
+      </c>
+      <c r="D6" s="63">
+        <f t="shared" ref="D6:D8" si="6">VLOOKUP(A6,$M$1:$W$11,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ref="E6:E8" si="7">VLOOKUP(A6,$M$1:$W$11,5,FALSE)</f>
+        <v>78</v>
+      </c>
+      <c r="F6" s="21">
         <f t="shared" si="3"/>
-        <v>31</v>
-      </c>
-      <c r="V5" s="37">
-        <f t="shared" si="7"/>
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A6" s="61" t="s">
-        <v>117</v>
-      </c>
-      <c r="B6" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="64">
-        <v>1</v>
-      </c>
-      <c r="D6" s="67">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="4"/>
-        <v>78</v>
-      </c>
-      <c r="F6" s="21">
-        <f t="shared" si="5"/>
         <v>0.76923076923076927</v>
       </c>
       <c r="G6">
         <v>20</v>
       </c>
       <c r="H6" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>30.76923076923077</v>
       </c>
-      <c r="I6" s="17" t="s">
+      <c r="J6" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="15">
-        <v>114.28260404155495</v>
-      </c>
-      <c r="K6" s="15"/>
+      <c r="K6" s="15">
+        <v>114.60633484162896</v>
+      </c>
       <c r="M6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="N6" s="24">
         <v>1.5307999999999999</v>
@@ -2784,8 +2792,8 @@
       <c r="O6" s="24">
         <v>9.9213000000000005</v>
       </c>
-      <c r="P6" s="31">
-        <f t="shared" si="1"/>
+      <c r="P6" s="30">
+        <f>N6+O6</f>
         <v>11.4521</v>
       </c>
       <c r="Q6" s="18">
@@ -2805,47 +2813,47 @@
         <f>ROUND(R6*S6*T6,0)</f>
         <v>24</v>
       </c>
-      <c r="V6" s="37">
+      <c r="V6" s="36">
         <f>R6/W$2</f>
         <v>0.1</v>
       </c>
     </row>
     <row r="7" spans="1:24">
-      <c r="A7" t="s">
-        <v>118</v>
-      </c>
-      <c r="B7" s="30" t="s">
-        <v>80</v>
-      </c>
-      <c r="C7" s="64">
+      <c r="A7" s="60" t="s">
+        <v>115</v>
+      </c>
+      <c r="B7" s="73" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" s="74">
         <v>1</v>
       </c>
-      <c r="D7" s="65">
-        <f t="shared" si="0"/>
-        <v>1</v>
+      <c r="D7" s="63">
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="E7">
-        <f t="shared" si="4"/>
-        <v>51</v>
+        <f t="shared" si="7"/>
+        <v>78</v>
       </c>
       <c r="F7" s="21">
-        <f t="shared" si="5"/>
-        <v>1.1764705882352942</v>
+        <f t="shared" si="3"/>
+        <v>0.76923076923076927</v>
       </c>
       <c r="G7">
         <v>20</v>
       </c>
       <c r="H7" s="20">
-        <f t="shared" si="6"/>
-        <v>23.529411764705884</v>
-      </c>
-      <c r="I7" s="17" t="s">
+        <f t="shared" si="4"/>
+        <v>30.76923076923077</v>
+      </c>
+      <c r="J7" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="15">
-        <v>138.89798865693956</v>
-      </c>
-      <c r="K7" s="15"/>
+      <c r="K7" s="15">
+        <v>139.22171945701359</v>
+      </c>
+      <c r="M7" s="61"/>
       <c r="N7" s="60"/>
       <c r="O7" s="60"/>
       <c r="P7" s="60"/>
@@ -2854,187 +2862,204 @@
       <c r="S7" s="19"/>
       <c r="T7" s="22"/>
       <c r="U7" s="23"/>
-      <c r="V7" s="37"/>
+      <c r="V7" s="36"/>
     </row>
     <row r="8" spans="1:24">
-      <c r="A8" t="s">
-        <v>118</v>
-      </c>
-      <c r="B8" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="64">
+      <c r="A8" s="60" t="s">
+        <v>115</v>
+      </c>
+      <c r="B8" s="75" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8" s="74">
         <v>1</v>
       </c>
-      <c r="D8" s="66">
-        <f t="shared" ref="D8" si="8">VLOOKUP(A8,$M$1:$W$8,6,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="E8" s="20">
-        <f t="shared" ref="E8" si="9">VLOOKUP(A8,$M$1:$W$8,5,FALSE)</f>
-        <v>51</v>
+      <c r="D8" s="63">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="7"/>
+        <v>78</v>
       </c>
       <c r="F8" s="21">
-        <f t="shared" si="5"/>
-        <v>1.1764705882352942</v>
+        <f t="shared" si="3"/>
+        <v>0.76923076923076927</v>
       </c>
       <c r="G8">
         <v>20</v>
       </c>
       <c r="H8" s="20">
-        <f t="shared" ref="H8" si="10">D8*F8*G8</f>
-        <v>23.529411764705884</v>
-      </c>
-      <c r="I8" s="17" t="s">
+        <f t="shared" si="4"/>
+        <v>30.76923076923077</v>
+      </c>
+      <c r="J8" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="J8" s="15">
-        <v>97.518678312111973</v>
-      </c>
-      <c r="K8" s="15"/>
-    </row>
-    <row r="9" spans="1:24">
-      <c r="A9" t="s">
-        <v>118</v>
-      </c>
-      <c r="B9" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="C9" s="64">
+      <c r="K8" s="15">
+        <v>91.221719457013577</v>
+      </c>
+      <c r="M8" s="61"/>
+      <c r="N8" s="60"/>
+      <c r="O8" s="60"/>
+      <c r="P8" s="60"/>
+      <c r="Q8" s="60"/>
+      <c r="R8" s="60"/>
+      <c r="S8" s="19"/>
+      <c r="T8" s="22"/>
+      <c r="U8" s="23"/>
+      <c r="V8" s="36"/>
+    </row>
+    <row r="9" spans="1:24" ht="15.75" thickBot="1">
+      <c r="A9" s="60" t="s">
+        <v>115</v>
+      </c>
+      <c r="B9" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="74">
         <v>1</v>
       </c>
-      <c r="D9" s="66">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E9" s="20">
-        <f t="shared" si="4"/>
-        <v>51</v>
+      <c r="D9" s="64">
+        <f>VLOOKUP(A9,$M$1:$W$11,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <f>VLOOKUP(A9,$M$1:$W$11,5,FALSE)</f>
+        <v>78</v>
       </c>
       <c r="F9" s="21">
-        <f t="shared" si="5"/>
-        <v>1.1764705882352942</v>
+        <f t="shared" si="3"/>
+        <v>0.76923076923076927</v>
       </c>
       <c r="G9">
         <v>20</v>
       </c>
       <c r="H9" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
+        <v>30.76923076923077</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="K9" s="15">
         <v>23.529411764705884</v>
       </c>
-      <c r="I9" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="J9" s="15">
-        <v>23.529411764705884</v>
-      </c>
-      <c r="K9" s="15"/>
     </row>
     <row r="10" spans="1:24">
       <c r="A10" t="s">
-        <v>118</v>
-      </c>
-      <c r="B10" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="C10" s="64">
+        <v>116</v>
+      </c>
+      <c r="B10" s="73" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="74">
         <v>1</v>
       </c>
-      <c r="D10" s="66">
-        <f t="shared" si="0"/>
+      <c r="D10" s="62">
+        <f>VLOOKUP(A10,$M$1:$W$11,6,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="E10" s="20">
-        <f>VLOOKUP(A10,$M$1:$W$8,5,FALSE)</f>
+      <c r="E10">
+        <f>VLOOKUP(A10,$M$1:$W$11,5,FALSE)</f>
         <v>51</v>
       </c>
       <c r="F10" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>1.1764705882352942</v>
       </c>
       <c r="G10">
         <v>20</v>
       </c>
       <c r="H10" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>23.529411764705884</v>
       </c>
-      <c r="I10" s="17" t="s">
+      <c r="J10" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="J10" s="15">
-        <v>96.763925729442974</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" ht="15.75" thickBot="1">
+      <c r="K10" s="15">
+        <v>98.461538461538467</v>
+      </c>
+      <c r="N10" s="59"/>
+      <c r="O10" s="59"/>
+      <c r="P10" s="59"/>
+      <c r="Q10" s="59"/>
+      <c r="R10" s="59"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="22"/>
+      <c r="U10" s="23"/>
+      <c r="V10" s="36"/>
+    </row>
+    <row r="11" spans="1:24">
       <c r="A11" t="s">
-        <v>118</v>
-      </c>
-      <c r="B11" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="64">
+        <v>116</v>
+      </c>
+      <c r="B11" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="74">
         <v>1</v>
       </c>
-      <c r="D11" s="67">
-        <f t="shared" si="0"/>
+      <c r="D11" s="63">
+        <f>VLOOKUP(A11,$M$1:$W$11,6,FALSE)</f>
         <v>1</v>
       </c>
       <c r="E11" s="20">
-        <f t="shared" si="4"/>
+        <f>VLOOKUP(A11,$M$1:$W$11,5,FALSE)</f>
         <v>51</v>
       </c>
       <c r="F11" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>1.1764705882352942</v>
       </c>
       <c r="G11">
         <v>20</v>
       </c>
       <c r="H11" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="H11" si="8">D11*F11*G11</f>
         <v>23.529411764705884</v>
       </c>
-      <c r="I11" s="17" t="s">
+      <c r="J11" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="J11" s="15">
-        <v>96.763925729442974</v>
+      <c r="K11" s="15">
+        <v>86.15384615384616</v>
       </c>
     </row>
     <row r="12" spans="1:24">
-      <c r="A12" s="62" t="s">
+      <c r="A12" t="s">
         <v>116</v>
       </c>
-      <c r="B12" s="30" t="s">
-        <v>80</v>
-      </c>
-      <c r="C12" s="64">
+      <c r="B12" s="73" t="s">
+        <v>110</v>
+      </c>
+      <c r="C12" s="74">
         <v>1</v>
       </c>
-      <c r="D12" s="65">
-        <f t="shared" ref="D12:D29" si="11">VLOOKUP(A12,$M$1:$W$8,6,FALSE)</f>
-        <v>3</v>
+      <c r="D12" s="63">
+        <f>VLOOKUP(A12,$M$1:$W$11,6,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E12" s="20">
-        <f t="shared" ref="E12:E29" si="12">VLOOKUP(A12,$M$1:$W$8,5,FALSE)</f>
-        <v>65</v>
+        <f>VLOOKUP(A12,$M$1:$W$11,5,FALSE)</f>
+        <v>51</v>
       </c>
       <c r="F12" s="21">
-        <f t="shared" si="5"/>
-        <v>0.92307692307692313</v>
+        <f t="shared" si="3"/>
+        <v>1.1764705882352942</v>
       </c>
       <c r="G12">
         <v>20</v>
       </c>
       <c r="H12" s="20">
-        <f t="shared" si="6"/>
-        <v>55.384615384615387</v>
-      </c>
-      <c r="I12" s="17" t="s">
+        <f t="shared" si="4"/>
+        <v>23.529411764705884</v>
+      </c>
+      <c r="J12" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="J12" s="15">
+      <c r="K12" s="15">
         <v>55.384615384615387</v>
       </c>
     </row>
@@ -3042,1163 +3067,1216 @@
       <c r="A13" t="s">
         <v>116</v>
       </c>
-      <c r="B13" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="64">
+      <c r="B13" s="73" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13" s="74">
         <v>1</v>
       </c>
-      <c r="D13" s="66">
-        <f t="shared" si="11"/>
-        <v>3</v>
+      <c r="D13" s="63">
+        <f>VLOOKUP(A13,$M$1:$W$11,6,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E13" s="20">
-        <f t="shared" si="12"/>
-        <v>65</v>
+        <f>VLOOKUP(A13,$M$1:$W$11,5,FALSE)</f>
+        <v>51</v>
       </c>
       <c r="F13" s="21">
-        <f t="shared" si="5"/>
-        <v>0.92307692307692313</v>
+        <f t="shared" si="3"/>
+        <v>1.1764705882352942</v>
       </c>
       <c r="G13">
         <v>20</v>
       </c>
       <c r="H13" s="20">
-        <f t="shared" ref="H13" si="13">D13*F13*G13</f>
-        <v>55.384615384615387</v>
-      </c>
-      <c r="I13" s="17" t="s">
+        <f t="shared" si="4"/>
+        <v>23.529411764705884</v>
+      </c>
+      <c r="J13" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="J13" s="15">
-        <v>96.763925729442974</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24">
+      <c r="K13" s="15">
+        <v>98.461538461538467</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" ht="15.75" thickBot="1">
       <c r="A14" t="s">
         <v>116</v>
       </c>
-      <c r="B14" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="C14" s="64">
+      <c r="B14" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="74">
         <v>1</v>
       </c>
-      <c r="D14" s="66">
-        <f t="shared" si="11"/>
-        <v>3</v>
+      <c r="D14" s="64">
+        <f>VLOOKUP(A14,$M$1:$W$11,6,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E14" s="20">
-        <f t="shared" si="12"/>
-        <v>65</v>
+        <f>VLOOKUP(A14,$M$1:$W$11,5,FALSE)</f>
+        <v>51</v>
       </c>
       <c r="F14" s="21">
-        <f t="shared" si="5"/>
-        <v>0.92307692307692313</v>
+        <f t="shared" si="3"/>
+        <v>1.1764705882352942</v>
       </c>
       <c r="G14">
         <v>20</v>
       </c>
       <c r="H14" s="20">
-        <f t="shared" si="6"/>
-        <v>55.384615384615387</v>
-      </c>
-      <c r="I14" s="17" t="s">
+        <f t="shared" si="4"/>
+        <v>23.529411764705884</v>
+      </c>
+      <c r="J14" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="J14" s="15">
-        <v>981.87998708211921</v>
+      <c r="K14" s="15">
+        <v>969.33936651583713</v>
       </c>
     </row>
     <row r="15" spans="1:24">
-      <c r="A15" t="s">
-        <v>116</v>
-      </c>
-      <c r="B15" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="C15" s="64">
+      <c r="A15" s="61" t="s">
+        <v>114</v>
+      </c>
+      <c r="B15" s="73" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="74">
         <v>1</v>
       </c>
-      <c r="D15" s="66">
-        <f t="shared" si="11"/>
+      <c r="D15" s="62">
+        <f>VLOOKUP(A15,$M$1:$W$11,6,FALSE)</f>
         <v>3</v>
       </c>
       <c r="E15" s="20">
-        <f t="shared" si="12"/>
+        <f>VLOOKUP(A15,$M$1:$W$11,5,FALSE)</f>
         <v>65</v>
       </c>
       <c r="F15" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0.92307692307692313</v>
       </c>
       <c r="G15">
         <v>20</v>
       </c>
       <c r="H15" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>55.384615384615387</v>
       </c>
     </row>
     <row r="16" spans="1:24">
       <c r="A16" t="s">
-        <v>116</v>
-      </c>
-      <c r="B16" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="C16" s="64">
+        <v>114</v>
+      </c>
+      <c r="B16" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="74">
         <v>1</v>
       </c>
-      <c r="D16" s="66">
-        <f t="shared" si="11"/>
+      <c r="D16" s="63">
+        <f>VLOOKUP(A16,$M$1:$W$11,6,FALSE)</f>
         <v>3</v>
       </c>
       <c r="E16" s="20">
-        <f t="shared" si="12"/>
+        <f>VLOOKUP(A16,$M$1:$W$11,5,FALSE)</f>
         <v>65</v>
       </c>
       <c r="F16" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0.92307692307692313</v>
       </c>
       <c r="G16">
         <v>20</v>
       </c>
       <c r="H16" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="H16" si="9">D16*F16*G16</f>
         <v>55.384615384615387</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>116</v>
-      </c>
-      <c r="B17" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="C17" s="64">
+        <v>114</v>
+      </c>
+      <c r="B17" s="73" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" s="74">
         <v>1</v>
       </c>
-      <c r="D17" s="66">
-        <f t="shared" si="11"/>
+      <c r="D17" s="63">
+        <f>VLOOKUP(A17,$M$1:$W$11,6,FALSE)</f>
         <v>3</v>
       </c>
       <c r="E17" s="20">
-        <f t="shared" si="12"/>
+        <f>VLOOKUP(A17,$M$1:$W$11,5,FALSE)</f>
         <v>65</v>
       </c>
       <c r="F17" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0.92307692307692313</v>
       </c>
       <c r="G17">
         <v>20</v>
       </c>
       <c r="H17" s="20">
-        <f>D17*F17*G17</f>
+        <f t="shared" si="4"/>
         <v>55.384615384615387</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>116</v>
-      </c>
-      <c r="B18" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="C18" s="64">
+        <v>114</v>
+      </c>
+      <c r="B18" s="73" t="s">
+        <v>107</v>
+      </c>
+      <c r="C18" s="74">
         <v>1</v>
       </c>
-      <c r="D18" s="66">
-        <f t="shared" ref="D18:D22" si="14">VLOOKUP(A18,$M$1:$W$8,6,FALSE)</f>
+      <c r="D18" s="63">
+        <f>VLOOKUP(A18,$M$1:$W$11,6,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E18">
-        <f t="shared" ref="E18:E21" si="15">VLOOKUP(A18,$M$1:$W$8,5,FALSE)</f>
+      <c r="E18" s="20">
+        <f>VLOOKUP(A18,$M$1:$W$11,5,FALSE)</f>
         <v>65</v>
       </c>
       <c r="F18" s="21">
-        <f t="shared" ref="F18:F21" si="16">60/E18*C18</f>
+        <f t="shared" si="3"/>
         <v>0.92307692307692313</v>
       </c>
       <c r="G18">
         <v>20</v>
       </c>
       <c r="H18" s="20">
-        <f t="shared" ref="H18:H21" si="17">D18*F18*G18</f>
+        <f t="shared" si="4"/>
         <v>55.384615384615387</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15.75" thickBot="1">
-      <c r="B19" s="30"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="67"/>
-      <c r="F19" s="21"/>
-      <c r="H19" s="20"/>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>114</v>
+      </c>
+      <c r="B19" s="73" t="s">
+        <v>108</v>
+      </c>
+      <c r="C19" s="74">
+        <v>1</v>
+      </c>
+      <c r="D19" s="63">
+        <f>VLOOKUP(A19,$M$1:$W$11,6,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="E19" s="20">
+        <f>VLOOKUP(A19,$M$1:$W$11,5,FALSE)</f>
+        <v>65</v>
+      </c>
+      <c r="F19" s="21">
+        <f t="shared" si="3"/>
+        <v>0.92307692307692313</v>
+      </c>
+      <c r="G19">
+        <v>20</v>
+      </c>
+      <c r="H19" s="20">
+        <f t="shared" si="4"/>
+        <v>55.384615384615387</v>
+      </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>114</v>
       </c>
-      <c r="B20" s="30" t="s">
-        <v>80</v>
-      </c>
-      <c r="C20" s="64">
+      <c r="B20" s="73" t="s">
+        <v>109</v>
+      </c>
+      <c r="C20" s="74">
         <v>1</v>
       </c>
-      <c r="D20" s="65">
-        <f t="shared" ref="D20" si="18">VLOOKUP(A20,$M$1:$W$8,6,FALSE)</f>
-        <v>2</v>
-      </c>
-      <c r="E20">
-        <f t="shared" ref="E20" si="19">VLOOKUP(A20,$M$1:$W$8,5,FALSE)</f>
-        <v>129</v>
+      <c r="D20" s="63">
+        <f>VLOOKUP(A20,$M$1:$W$11,6,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="E20" s="20">
+        <f>VLOOKUP(A20,$M$1:$W$11,5,FALSE)</f>
+        <v>65</v>
       </c>
       <c r="F20" s="21">
-        <f t="shared" ref="F20" si="20">60/E20*C20</f>
-        <v>0.46511627906976744</v>
+        <f t="shared" si="3"/>
+        <v>0.92307692307692313</v>
       </c>
       <c r="G20">
         <v>20</v>
       </c>
       <c r="H20" s="20">
-        <f t="shared" ref="H20" si="21">D20*F20*G20</f>
-        <v>18.604651162790699</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <f>D20*F20*G20</f>
+        <v>55.384615384615387</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" thickBot="1">
       <c r="A21" t="s">
         <v>114</v>
       </c>
-      <c r="B21" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="64">
+      <c r="B21" s="73" t="s">
+        <v>110</v>
+      </c>
+      <c r="C21" s="74">
         <v>1</v>
       </c>
-      <c r="D21" s="66">
-        <f t="shared" si="14"/>
-        <v>2</v>
+      <c r="D21" s="63">
+        <f>VLOOKUP(A21,$M$1:$W$11,6,FALSE)</f>
+        <v>3</v>
       </c>
       <c r="E21">
-        <f t="shared" si="15"/>
-        <v>129</v>
+        <f>VLOOKUP(A21,$M$1:$W$11,5,FALSE)</f>
+        <v>65</v>
       </c>
       <c r="F21" s="21">
-        <f t="shared" si="16"/>
-        <v>0.46511627906976744</v>
+        <f t="shared" ref="F21:F25" si="10">60/E21*C21</f>
+        <v>0.92307692307692313</v>
       </c>
       <c r="G21">
         <v>20</v>
       </c>
       <c r="H21" s="20">
-        <f t="shared" si="17"/>
-        <v>18.604651162790699</v>
+        <f t="shared" ref="H21:H25" si="11">D21*F21*G21</f>
+        <v>55.384615384615387</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>114</v>
-      </c>
-      <c r="B22" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="C22" s="64">
+        <v>117</v>
+      </c>
+      <c r="B22" s="73" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="74">
         <v>1</v>
       </c>
-      <c r="D22" s="66">
-        <f t="shared" si="14"/>
+      <c r="D22" s="62">
+        <f>VLOOKUP(A22,$M$1:$W$11,6,FALSE)</f>
         <v>2</v>
       </c>
       <c r="E22">
-        <f t="shared" ref="E22" si="22">VLOOKUP(A22,$M$1:$W$8,5,FALSE)</f>
-        <v>129</v>
+        <f>VLOOKUP(A22,$M$1:$W$11,5,FALSE)</f>
+        <v>195</v>
       </c>
       <c r="F22" s="21">
-        <f t="shared" ref="F22" si="23">60/E22*C22</f>
-        <v>0.46511627906976744</v>
+        <f t="shared" ref="F22" si="12">60/E22*C22</f>
+        <v>0.30769230769230771</v>
       </c>
       <c r="G22">
         <v>20</v>
       </c>
       <c r="H22" s="20">
-        <f t="shared" ref="H22" si="24">D22*F22*G22</f>
-        <v>18.604651162790699</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" thickBot="1">
+        <f t="shared" ref="H22" si="13">D22*F22*G22</f>
+        <v>12.307692307692308</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>114</v>
-      </c>
-      <c r="B23" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="64">
+        <v>117</v>
+      </c>
+      <c r="B23" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="74">
         <v>1</v>
       </c>
-      <c r="D23" s="67">
-        <f t="shared" si="11"/>
+      <c r="D23" s="63">
+        <f>VLOOKUP(A23,$M$1:$W$11,6,FALSE)</f>
         <v>2</v>
       </c>
       <c r="E23">
-        <f t="shared" si="12"/>
-        <v>129</v>
+        <f>VLOOKUP(A23,$M$1:$W$11,5,FALSE)</f>
+        <v>195</v>
       </c>
       <c r="F23" s="21">
-        <f t="shared" si="5"/>
-        <v>0.46511627906976744</v>
+        <f t="shared" si="10"/>
+        <v>0.30769230769230771</v>
       </c>
       <c r="G23">
         <v>20</v>
       </c>
       <c r="H23" s="20">
-        <f t="shared" si="6"/>
-        <v>18.604651162790699</v>
+        <f t="shared" si="11"/>
+        <v>12.307692307692308</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>115</v>
-      </c>
-      <c r="B24" s="30" t="s">
-        <v>80</v>
-      </c>
-      <c r="C24" s="64">
+        <v>117</v>
+      </c>
+      <c r="B24" s="73" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" s="74">
         <v>1</v>
       </c>
-      <c r="D24" s="65">
-        <f t="shared" si="11"/>
+      <c r="D24" s="63">
+        <f>VLOOKUP(A24,$M$1:$W$11,6,FALSE)</f>
         <v>2</v>
       </c>
       <c r="E24">
-        <f t="shared" si="12"/>
-        <v>58</v>
+        <f>VLOOKUP(A24,$M$1:$W$11,5,FALSE)</f>
+        <v>195</v>
       </c>
       <c r="F24" s="21">
-        <f t="shared" si="5"/>
-        <v>1.0344827586206897</v>
+        <f t="shared" si="10"/>
+        <v>0.30769230769230771</v>
       </c>
       <c r="G24">
         <v>20</v>
       </c>
       <c r="H24" s="20">
-        <f t="shared" si="6"/>
-        <v>41.379310344827587</v>
+        <f t="shared" si="11"/>
+        <v>12.307692307692308</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>115</v>
-      </c>
-      <c r="B25" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C25" s="64">
+        <v>117</v>
+      </c>
+      <c r="B25" s="73" t="s">
+        <v>107</v>
+      </c>
+      <c r="C25" s="74">
         <v>1</v>
       </c>
-      <c r="D25" s="66">
-        <f t="shared" si="11"/>
+      <c r="D25" s="63">
+        <f>VLOOKUP(A25,$M$1:$W$11,6,FALSE)</f>
         <v>2</v>
       </c>
       <c r="E25">
-        <f t="shared" si="12"/>
-        <v>58</v>
+        <f>VLOOKUP(A25,$M$1:$W$11,5,FALSE)</f>
+        <v>195</v>
       </c>
       <c r="F25" s="21">
-        <f t="shared" si="5"/>
-        <v>1.0344827586206897</v>
+        <f t="shared" si="10"/>
+        <v>0.30769230769230771</v>
       </c>
       <c r="G25">
         <v>20</v>
       </c>
       <c r="H25" s="20">
-        <f t="shared" si="6"/>
-        <v>41.379310344827587</v>
+        <f t="shared" si="11"/>
+        <v>12.307692307692308</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>115</v>
-      </c>
-      <c r="B26" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="C26" s="64">
+        <v>117</v>
+      </c>
+      <c r="B26" s="73" t="s">
+        <v>110</v>
+      </c>
+      <c r="C26" s="74">
         <v>1</v>
       </c>
-      <c r="D26" s="66">
-        <f t="shared" si="11"/>
+      <c r="D26" s="63">
+        <f>VLOOKUP(A26,$M$1:$W$11,6,FALSE)</f>
         <v>2</v>
       </c>
       <c r="E26">
-        <f t="shared" si="12"/>
-        <v>58</v>
+        <f>VLOOKUP(A26,$M$1:$W$11,5,FALSE)</f>
+        <v>195</v>
       </c>
       <c r="F26" s="21">
-        <f t="shared" si="5"/>
-        <v>1.0344827586206897</v>
+        <f t="shared" ref="F26" si="14">60/E26*C26</f>
+        <v>0.30769230769230771</v>
       </c>
       <c r="G26">
         <v>20</v>
       </c>
       <c r="H26" s="20">
-        <f t="shared" si="6"/>
-        <v>41.379310344827587</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <f t="shared" ref="H26" si="15">D26*F26*G26</f>
+        <v>12.307692307692308</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" thickBot="1">
       <c r="A27" t="s">
-        <v>115</v>
-      </c>
-      <c r="B27" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="C27" s="64">
+        <v>117</v>
+      </c>
+      <c r="B27" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="74">
         <v>1</v>
       </c>
-      <c r="D27" s="66">
-        <f t="shared" si="11"/>
+      <c r="D27" s="64">
+        <f>VLOOKUP(A27,$M$1:$W$11,6,FALSE)</f>
         <v>2</v>
       </c>
       <c r="E27">
-        <f t="shared" si="12"/>
-        <v>58</v>
+        <f>VLOOKUP(A27,$M$1:$W$11,5,FALSE)</f>
+        <v>195</v>
       </c>
       <c r="F27" s="21">
-        <f t="shared" si="5"/>
-        <v>1.0344827586206897</v>
+        <f t="shared" si="3"/>
+        <v>0.30769230769230771</v>
       </c>
       <c r="G27">
         <v>20</v>
       </c>
       <c r="H27" s="20">
-        <f t="shared" ref="H27" si="25">D27*F27*G27</f>
-        <v>41.379310344827587</v>
+        <f t="shared" si="4"/>
+        <v>12.307692307692308</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>115</v>
-      </c>
-      <c r="B28" s="63" t="s">
-        <v>108</v>
-      </c>
-      <c r="C28" s="64">
+        <v>118</v>
+      </c>
+      <c r="B28" s="73" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" s="74">
         <v>1</v>
       </c>
-      <c r="D28" s="66">
-        <f t="shared" si="11"/>
+      <c r="D28" s="62">
+        <f>VLOOKUP(A28,$M$1:$W$11,6,FALSE)</f>
         <v>2</v>
       </c>
       <c r="E28">
-        <f t="shared" si="12"/>
-        <v>58</v>
+        <f>VLOOKUP(A28,$M$1:$W$11,5,FALSE)</f>
+        <v>50</v>
       </c>
       <c r="F28" s="21">
-        <f t="shared" si="5"/>
-        <v>1.0344827586206897</v>
+        <f t="shared" si="3"/>
+        <v>1.2</v>
       </c>
       <c r="G28">
         <v>20</v>
       </c>
       <c r="H28" s="20">
-        <f t="shared" si="6"/>
-        <v>41.379310344827587</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A29" s="68" t="s">
-        <v>115</v>
-      </c>
-      <c r="B29" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="C29" s="71">
+        <f t="shared" si="4"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" t="s">
+        <v>118</v>
+      </c>
+      <c r="B29" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="74">
         <v>1</v>
       </c>
-      <c r="D29" s="67">
-        <f t="shared" si="11"/>
+      <c r="D29" s="63">
+        <f>VLOOKUP(A29,$M$1:$W$11,6,FALSE)</f>
         <v>2</v>
       </c>
       <c r="E29">
-        <f t="shared" si="12"/>
-        <v>58</v>
+        <f>VLOOKUP(A29,$M$1:$W$11,5,FALSE)</f>
+        <v>50</v>
       </c>
       <c r="F29" s="21">
-        <f t="shared" si="5"/>
-        <v>1.0344827586206897</v>
+        <f t="shared" si="3"/>
+        <v>1.2</v>
       </c>
       <c r="G29">
         <v>20</v>
       </c>
       <c r="H29" s="20">
-        <f t="shared" si="6"/>
-        <v>41.379310344827587</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="60"/>
-      <c r="B30" s="60"/>
-      <c r="C30" s="60"/>
-      <c r="D30" s="59"/>
-      <c r="E30" s="59"/>
-      <c r="F30" s="69"/>
-      <c r="G30" s="59"/>
-      <c r="H30" s="70"/>
-    </row>
-    <row r="32" spans="1:8" ht="15.75" thickBot="1"/>
-    <row r="33" spans="1:9">
-      <c r="A33" s="72" t="s">
+        <f t="shared" si="4"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A30" t="s">
+        <v>118</v>
+      </c>
+      <c r="B30" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="76">
+        <v>1</v>
+      </c>
+      <c r="D30" s="64">
+        <f>VLOOKUP(A30,$M$1:$W$11,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <f>VLOOKUP(A30,$M$1:$W$11,5,FALSE)</f>
+        <v>50</v>
+      </c>
+      <c r="F30" s="21">
+        <f t="shared" si="3"/>
+        <v>1.2</v>
+      </c>
+      <c r="G30">
+        <v>20</v>
+      </c>
+      <c r="H30" s="20">
+        <f t="shared" si="4"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="59"/>
+      <c r="B31" s="59"/>
+      <c r="C31" s="59"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="65"/>
+      <c r="G31" s="58"/>
+      <c r="H31" s="66"/>
+    </row>
+    <row r="33" spans="1:9" ht="15.75" thickBot="1"/>
+    <row r="34" spans="1:9">
+      <c r="A34" s="67" t="s">
         <v>77</v>
       </c>
-      <c r="B33" s="73"/>
-    </row>
-    <row r="34" spans="1:9" ht="93.75">
-      <c r="A34" s="40" t="s">
+      <c r="B34" s="68"/>
+    </row>
+    <row r="35" spans="1:9" ht="93.75">
+      <c r="A35" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="B34" s="41" t="s">
+      <c r="B35" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="C34" s="39" t="s">
+      <c r="C35" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="D34" s="54" t="s">
+      <c r="D35" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="E34" s="57"/>
-      <c r="F34" s="56" t="s">
+      <c r="E35" s="56"/>
+      <c r="F35" s="55" t="s">
         <v>104</v>
       </c>
-      <c r="G34" s="29" t="s">
+      <c r="G35" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="H34" s="29" t="s">
+      <c r="H35" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="I34" s="29" t="s">
+      <c r="I35" s="29" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="37.5">
-      <c r="A35" s="40" t="s">
+    <row r="36" spans="1:9" ht="37.5">
+      <c r="A36" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="B35" s="42">
+      <c r="B36" s="41">
         <v>520</v>
       </c>
-      <c r="C35" s="28">
-        <f t="shared" ref="C35:C46" si="26">GETPIVOTDATA("Итого",$I$1,"transaction rq",F35)*3</f>
-        <v>509.001658278511</v>
-      </c>
-      <c r="D35" s="55">
-        <f t="shared" ref="D35:D36" si="27">1-B35/C35</f>
-        <v>-2.1607673654121973E-2</v>
-      </c>
-      <c r="E35" s="53"/>
-      <c r="F35" s="52" t="str">
-        <f>VLOOKUP(A35,Соответствие!A:B,2,FALSE)</f>
+      <c r="C36" s="28">
+        <f>GETPIVOTDATA("Итого",$J$1,"transaction rq",F36)*3</f>
+        <v>509.9728506787331</v>
+      </c>
+      <c r="D36" s="54">
+        <f t="shared" ref="D36:D37" si="16">1-B36/C36</f>
+        <v>-1.9662123793299235E-2</v>
+      </c>
+      <c r="E36" s="52"/>
+      <c r="F36" s="51" t="str">
+        <f>VLOOKUP(A36,Соответствие!A:B,2,FALSE)</f>
         <v>open_home_page</v>
       </c>
-      <c r="G35" s="58">
-        <f>C35/3</f>
-        <v>169.66721942617033</v>
-      </c>
-      <c r="H35" s="50">
-        <f>VLOOKUP(F35,SummaryReport!A:J,8,FALSE)</f>
+      <c r="G36" s="57">
+        <f>C36/3</f>
+        <v>169.99095022624437</v>
+      </c>
+      <c r="H36" s="49">
+        <f>VLOOKUP(F36,SummaryReport!A:J,8,FALSE)</f>
         <v>34</v>
       </c>
-      <c r="I35" s="26">
-        <f t="shared" ref="I35:I46" si="28">1-G35/H35</f>
-        <v>-3.9902123360638333</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="18.75">
-      <c r="A36" s="43" t="s">
+      <c r="I36" s="26">
+        <f t="shared" ref="I36:I47" si="17">1-G36/H36</f>
+        <v>-3.9997338301836578</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="18.75">
+      <c r="A37" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="42">
+      <c r="B37" s="41">
         <v>422</v>
       </c>
-      <c r="C36" s="28">
-        <f t="shared" si="26"/>
-        <v>416.69396597081868</v>
-      </c>
-      <c r="D36" s="55">
-        <f t="shared" si="27"/>
-        <v>-1.27336473827242E-2</v>
-      </c>
-      <c r="E36" s="53"/>
-      <c r="F36" s="52" t="str">
-        <f>VLOOKUP(A36,Соответствие!A:B,2,FALSE)</f>
+      <c r="C37" s="28">
+        <f>GETPIVOTDATA("Итого",$J$1,"transaction rq",F37)*3</f>
+        <v>417.66515837104077</v>
+      </c>
+      <c r="D37" s="54">
+        <f t="shared" si="16"/>
+        <v>-1.0378748483272471E-2</v>
+      </c>
+      <c r="E37" s="52"/>
+      <c r="F37" s="51" t="str">
+        <f>VLOOKUP(A37,Соответствие!A:B,2,FALSE)</f>
         <v>login</v>
       </c>
-      <c r="G36" s="58">
-        <f t="shared" ref="G36:G46" si="29">C36/3</f>
-        <v>138.89798865693956</v>
-      </c>
-      <c r="H36" s="50">
+      <c r="G37" s="57">
+        <f t="shared" ref="G37:G47" si="18">C37/3</f>
+        <v>139.22171945701359</v>
+      </c>
+      <c r="H37" s="49">
         <v>26</v>
       </c>
-      <c r="I36" s="26">
-        <f t="shared" si="28"/>
-        <v>-4.3422303329592138</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="56.25">
-      <c r="A37" s="44" t="s">
+      <c r="I37" s="26">
+        <f t="shared" si="17"/>
+        <v>-4.354681517577446</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="56.25">
+      <c r="A38" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="B37" s="42">
+      <c r="B38" s="41">
         <v>305</v>
       </c>
-      <c r="C37" s="28">
-        <f t="shared" si="26"/>
-        <v>290.29177718832892</v>
-      </c>
-      <c r="D37" s="55">
-        <f t="shared" ref="D37" si="30">1-B37/C37</f>
-        <v>-5.0667032163742576E-2</v>
-      </c>
-      <c r="E37" s="53"/>
-      <c r="F37" s="52" t="str">
-        <f>VLOOKUP(A37,Соответствие!A:B,2,FALSE)</f>
+      <c r="C38" s="28">
+        <f>GETPIVOTDATA("Итого",$J$1,"transaction rq",F38)*3</f>
+        <v>295.38461538461542</v>
+      </c>
+      <c r="D38" s="54">
+        <f t="shared" ref="D38" si="19">1-B38/C38</f>
+        <v>-3.2552083333333259E-2</v>
+      </c>
+      <c r="E38" s="52"/>
+      <c r="F38" s="51" t="str">
+        <f>VLOOKUP(A38,Соответствие!A:B,2,FALSE)</f>
         <v>click_flights</v>
       </c>
-      <c r="G37" s="58">
-        <f t="shared" si="29"/>
-        <v>96.763925729442974</v>
-      </c>
-      <c r="H37" s="50">
-        <f>VLOOKUP(F37,SummaryReport!A:J,8,FALSE)</f>
+      <c r="G38" s="57">
+        <f t="shared" si="18"/>
+        <v>98.461538461538467</v>
+      </c>
+      <c r="H38" s="49">
+        <f>VLOOKUP(F38,SummaryReport!A:J,8,FALSE)</f>
         <v>106</v>
       </c>
-      <c r="I37" s="26"/>
-    </row>
-    <row r="38" spans="1:9" ht="37.5">
-      <c r="A38" s="43" t="s">
+      <c r="I38" s="26"/>
+    </row>
+    <row r="39" spans="1:9" ht="37.5">
+      <c r="A39" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="B38" s="42">
+      <c r="B39" s="41">
         <v>282</v>
       </c>
-      <c r="C38" s="28">
-        <f t="shared" si="26"/>
-        <v>290.29177718832892</v>
-      </c>
-      <c r="D38" s="51">
-        <f t="shared" ref="D38:D47" si="31">1-B38/C38</f>
-        <v>2.8563596491228083E-2</v>
-      </c>
-      <c r="E38" s="53"/>
-      <c r="F38" s="52" t="str">
-        <f>VLOOKUP(A38,Соответствие!A:B,2,FALSE)</f>
+      <c r="C39" s="28">
+        <f>GETPIVOTDATA("Итого",$J$1,"transaction rq",F39)*3</f>
+        <v>295.38461538461542</v>
+      </c>
+      <c r="D39" s="50">
+        <f t="shared" ref="D39:D48" si="20">1-B39/C39</f>
+        <v>4.5312500000000089E-2</v>
+      </c>
+      <c r="E39" s="52"/>
+      <c r="F39" s="51" t="str">
+        <f>VLOOKUP(A39,Соответствие!A:B,2,FALSE)</f>
         <v>find_ticket</v>
       </c>
-      <c r="G38" s="58">
-        <f t="shared" si="29"/>
-        <v>96.763925729442974</v>
-      </c>
-      <c r="H38" s="50" t="e">
-        <f>VLOOKUP(F38,SummaryReport!A:J,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I38" s="26" t="e">
-        <f t="shared" si="28"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="37.5">
-      <c r="A39" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="B39" s="42">
-        <v>270</v>
-      </c>
-      <c r="C39" s="28">
-        <f t="shared" si="26"/>
-        <v>290.29177718832892</v>
-      </c>
-      <c r="D39" s="51">
-        <f t="shared" si="31"/>
-        <v>6.9901315789473673E-2</v>
-      </c>
-      <c r="E39" s="53"/>
-      <c r="F39" s="52" t="str">
-        <f>VLOOKUP(A39,Соответствие!A:B,2,FALSE)</f>
-        <v>choice_ticket</v>
-      </c>
-      <c r="G39" s="58">
-        <f t="shared" si="29"/>
-        <v>96.763925729442974</v>
-      </c>
-      <c r="H39" s="50" t="e">
+      <c r="G39" s="57">
+        <f t="shared" si="18"/>
+        <v>98.461538461538467</v>
+      </c>
+      <c r="H39" s="49" t="e">
         <f>VLOOKUP(F39,SummaryReport!A:J,8,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I39" s="26" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="18.75">
-      <c r="A40" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="B40" s="42">
-        <v>175</v>
+    <row r="40" spans="1:9" ht="37.5">
+      <c r="A40" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" s="41">
+        <v>270</v>
       </c>
       <c r="C40" s="28">
-        <f t="shared" si="26"/>
-        <v>166.15384615384616</v>
-      </c>
-      <c r="D40" s="51">
-        <f t="shared" si="31"/>
-        <v>-5.32407407407407E-2</v>
-      </c>
-      <c r="E40" s="53"/>
-      <c r="F40" s="52" t="str">
+        <f>GETPIVOTDATA("Итого",$J$1,"transaction rq",F40)*3</f>
+        <v>258.46153846153845</v>
+      </c>
+      <c r="D40" s="50">
+        <f t="shared" si="20"/>
+        <v>-4.4642857142857206E-2</v>
+      </c>
+      <c r="E40" s="52"/>
+      <c r="F40" s="51" t="str">
         <f>VLOOKUP(A40,Соответствие!A:B,2,FALSE)</f>
-        <v>buy_ticket</v>
-      </c>
-      <c r="G40" s="58">
-        <f t="shared" si="29"/>
-        <v>55.384615384615387</v>
-      </c>
-      <c r="H40" s="50" t="e">
+        <v>choice_ticket</v>
+      </c>
+      <c r="G40" s="57">
+        <f t="shared" si="18"/>
+        <v>86.153846153846146</v>
+      </c>
+      <c r="H40" s="49" t="e">
         <f>VLOOKUP(F40,SummaryReport!A:J,8,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I40" s="26" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="37.5">
-      <c r="A41" s="43" t="s">
+    <row r="41" spans="1:9" ht="18.75">
+      <c r="A41" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41" s="41">
+        <v>175</v>
+      </c>
+      <c r="C41" s="28">
+        <f>GETPIVOTDATA("Итого",$J$1,"transaction rq",F41)*3</f>
+        <v>166.15384615384616</v>
+      </c>
+      <c r="D41" s="50">
+        <f t="shared" si="20"/>
+        <v>-5.32407407407407E-2</v>
+      </c>
+      <c r="E41" s="52"/>
+      <c r="F41" s="51" t="str">
+        <f>VLOOKUP(A41,Соответствие!A:B,2,FALSE)</f>
+        <v>buy_ticket</v>
+      </c>
+      <c r="G41" s="57">
+        <f t="shared" si="18"/>
+        <v>55.384615384615387</v>
+      </c>
+      <c r="H41" s="49" t="e">
+        <f>VLOOKUP(F41,SummaryReport!A:J,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I41" s="26" t="e">
+        <f t="shared" si="17"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="37.5">
+      <c r="A42" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="B41" s="42">
+      <c r="B42" s="41">
         <v>280</v>
       </c>
-      <c r="C41" s="28">
-        <f t="shared" si="26"/>
-        <v>292.55603493633589</v>
-      </c>
-      <c r="D41" s="51">
-        <f t="shared" si="31"/>
-        <v>4.2918393186003656E-2</v>
-      </c>
-      <c r="E41" s="53"/>
-      <c r="F41" s="52" t="str">
-        <f>VLOOKUP(A41,Соответствие!A:B,2,FALSE)</f>
+      <c r="C42" s="28">
+        <f>GETPIVOTDATA("Итого",$J$1,"transaction rq",F42)*3</f>
+        <v>273.66515837104072</v>
+      </c>
+      <c r="D42" s="50">
+        <f t="shared" si="20"/>
+        <v>-2.314814814814814E-2</v>
+      </c>
+      <c r="E42" s="52"/>
+      <c r="F42" s="51" t="str">
+        <f>VLOOKUP(A42,Соответствие!A:B,2,FALSE)</f>
         <v>click_Itinerary</v>
       </c>
-      <c r="G41" s="58">
-        <f t="shared" si="29"/>
-        <v>97.518678312111959</v>
-      </c>
-      <c r="H41" s="50">
-        <f>VLOOKUP(F41,SummaryReport!A:J,8,FALSE)</f>
+      <c r="G42" s="57">
+        <f t="shared" si="18"/>
+        <v>91.221719457013577</v>
+      </c>
+      <c r="H42" s="49">
+        <f>VLOOKUP(F42,SummaryReport!A:J,8,FALSE)</f>
         <v>95</v>
       </c>
-      <c r="I41" s="26">
-        <f t="shared" si="28"/>
-        <v>-2.6512403285388952E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="37.5">
-      <c r="A42" s="43" t="s">
+      <c r="I42" s="26">
+        <f t="shared" si="17"/>
+        <v>3.9771374136699178E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="37.5">
+      <c r="A43" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="B42" s="42">
+      <c r="B43" s="41">
         <v>73</v>
       </c>
-      <c r="C42" s="28">
-        <f t="shared" si="26"/>
+      <c r="C43" s="28">
+        <f>GETPIVOTDATA("Итого",$J$1,"transaction rq",F43)*3</f>
         <v>70.588235294117652</v>
       </c>
-      <c r="D42" s="51">
-        <f t="shared" si="31"/>
+      <c r="D43" s="50">
+        <f t="shared" si="20"/>
         <v>-3.4166666666666679E-2</v>
       </c>
-      <c r="E42" s="53"/>
-      <c r="F42" s="52" t="str">
-        <f>VLOOKUP(A42,Соответствие!A:B,2,FALSE)</f>
+      <c r="E43" s="52"/>
+      <c r="F43" s="51" t="str">
+        <f>VLOOKUP(A43,Соответствие!A:B,2,FALSE)</f>
         <v>delete_booking</v>
       </c>
-      <c r="G42" s="58">
-        <f t="shared" si="29"/>
+      <c r="G43" s="57">
+        <f t="shared" si="18"/>
         <v>23.529411764705884</v>
       </c>
-      <c r="H42" s="50" t="e">
-        <f>VLOOKUP(F42,SummaryReport!A:J,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I42" s="26" t="e">
-        <f t="shared" si="28"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="37.5">
-      <c r="A43" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="B43" s="42">
-        <v>326</v>
-      </c>
-      <c r="C43" s="28">
-        <f t="shared" si="26"/>
-        <v>342.84781212466487</v>
-      </c>
-      <c r="D43" s="51">
-        <f t="shared" si="31"/>
-        <v>4.9140789378987582E-2</v>
-      </c>
-      <c r="E43" s="53"/>
-      <c r="F43" s="52" t="str">
-        <f>VLOOKUP(A43,Соответствие!A:B,2,FALSE)</f>
-        <v>logout</v>
-      </c>
-      <c r="G43" s="58">
-        <f t="shared" si="29"/>
-        <v>114.28260404155496</v>
-      </c>
-      <c r="H43" s="50" t="e">
+      <c r="H43" s="49" t="e">
         <f>VLOOKUP(F43,SummaryReport!A:J,8,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I43" s="26" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="56.25">
-      <c r="A44" s="43" t="s">
+    <row r="44" spans="1:9" ht="37.5">
+      <c r="A44" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" s="41">
+        <v>326</v>
+      </c>
+      <c r="C44" s="28">
+        <f>GETPIVOTDATA("Итого",$J$1,"transaction rq",F44)*3</f>
+        <v>343.81900452488691</v>
+      </c>
+      <c r="D44" s="50">
+        <f t="shared" si="20"/>
+        <v>5.1826700357970212E-2</v>
+      </c>
+      <c r="E44" s="52"/>
+      <c r="F44" s="51" t="str">
+        <f>VLOOKUP(A44,Соответствие!A:B,2,FALSE)</f>
+        <v>logout</v>
+      </c>
+      <c r="G44" s="57">
+        <f t="shared" si="18"/>
+        <v>114.60633484162896</v>
+      </c>
+      <c r="H44" s="49" t="e">
+        <f>VLOOKUP(F44,SummaryReport!A:J,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I44" s="26" t="e">
+        <f t="shared" si="17"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="56.25">
+      <c r="A45" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="B44" s="42">
+      <c r="B45" s="41">
         <v>97</v>
       </c>
-      <c r="C44" s="28">
-        <f t="shared" si="26"/>
+      <c r="C45" s="28">
+        <f>GETPIVOTDATA("Итого",$J$1,"transaction rq",F45)*3</f>
         <v>92.307692307692307</v>
       </c>
-      <c r="D44" s="51">
-        <f t="shared" si="31"/>
+      <c r="D45" s="50">
+        <f t="shared" si="20"/>
         <v>-5.0833333333333286E-2</v>
       </c>
-      <c r="E44" s="53"/>
-      <c r="F44" s="52" t="str">
-        <f>VLOOKUP(A44,Соответствие!A:B,2,FALSE)</f>
+      <c r="E45" s="52"/>
+      <c r="F45" s="51" t="str">
+        <f>VLOOKUP(A45,Соответствие!A:B,2,FALSE)</f>
         <v>click_sign_up_now</v>
       </c>
-      <c r="G44" s="58">
-        <f t="shared" si="29"/>
+      <c r="G45" s="57">
+        <f t="shared" si="18"/>
         <v>30.76923076923077</v>
       </c>
-      <c r="H44" s="50"/>
-      <c r="I44" s="26" t="e">
-        <f t="shared" si="28"/>
+      <c r="H45" s="49"/>
+      <c r="I45" s="26" t="e">
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="37.5">
-      <c r="A45" s="43" t="s">
+    <row r="46" spans="1:9" ht="37.5">
+      <c r="A46" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="B45" s="42">
+      <c r="B46" s="41">
         <v>97</v>
       </c>
-      <c r="C45" s="28">
-        <f t="shared" si="26"/>
+      <c r="C46" s="28">
+        <f>GETPIVOTDATA("Итого",$J$1,"transaction rq",F46)*3</f>
         <v>92.307692307692307</v>
       </c>
-      <c r="D45" s="51">
-        <f t="shared" si="31"/>
+      <c r="D46" s="50">
+        <f t="shared" si="20"/>
         <v>-5.0833333333333286E-2</v>
       </c>
-      <c r="E45" s="53"/>
-      <c r="F45" s="52" t="str">
-        <f>VLOOKUP(A45,Соответствие!A:B,2,FALSE)</f>
+      <c r="E46" s="52"/>
+      <c r="F46" s="51" t="str">
+        <f>VLOOKUP(A46,Соответствие!A:B,2,FALSE)</f>
         <v>data_usr</v>
       </c>
-      <c r="G45" s="58">
-        <f t="shared" si="29"/>
+      <c r="G46" s="57">
+        <f t="shared" si="18"/>
         <v>30.76923076923077</v>
       </c>
-      <c r="H45" s="50"/>
-      <c r="I45" s="26" t="e">
-        <f t="shared" si="28"/>
+      <c r="H46" s="49"/>
+      <c r="I46" s="26" t="e">
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="75">
-      <c r="A46" s="43" t="s">
+    <row r="47" spans="1:9" ht="75">
+      <c r="A47" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="B46" s="42">
+      <c r="B47" s="41">
         <v>97</v>
       </c>
-      <c r="C46" s="28">
-        <f t="shared" si="26"/>
+      <c r="C47" s="28">
+        <f>GETPIVOTDATA("Итого",$J$1,"transaction rq",F47)*3</f>
         <v>92.307692307692307</v>
       </c>
-      <c r="D46" s="51">
-        <f t="shared" si="31"/>
+      <c r="D47" s="50">
+        <f t="shared" si="20"/>
         <v>-5.0833333333333286E-2</v>
       </c>
-      <c r="E46" s="53"/>
-      <c r="F46" s="52" t="str">
-        <f>VLOOKUP(A46,Соответствие!A:B,2,FALSE)</f>
+      <c r="E47" s="52"/>
+      <c r="F47" s="51" t="str">
+        <f>VLOOKUP(A47,Соответствие!A:B,2,FALSE)</f>
         <v>welcome_new_usr</v>
       </c>
-      <c r="G46" s="58">
-        <f t="shared" si="29"/>
+      <c r="G47" s="57">
+        <f t="shared" si="18"/>
         <v>30.76923076923077</v>
       </c>
-      <c r="H46" s="50"/>
-      <c r="I46" s="26" t="e">
-        <f t="shared" si="28"/>
+      <c r="H47" s="49"/>
+      <c r="I47" s="26" t="e">
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="19.5" thickBot="1">
-      <c r="A47" s="45" t="s">
+    <row r="48" spans="1:9" ht="19.5" thickBot="1">
+      <c r="A48" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B47" s="46">
-        <f>SUM(B35:B46)</f>
+      <c r="B48" s="45">
+        <f>SUM(B36:B47)</f>
         <v>2944</v>
       </c>
-      <c r="C47" s="27">
-        <f>SUM(C35:C46)</f>
-        <v>2945.6399612463583</v>
-      </c>
-      <c r="D47" s="25">
-        <f t="shared" si="31"/>
-        <v>5.5674191956045505E-4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="I48" s="33"/>
+      <c r="C48" s="27">
+        <f>SUM(C36:C47)</f>
+        <v>2908.0180995475121</v>
+      </c>
+      <c r="D48" s="25">
+        <f t="shared" si="20"/>
+        <v>-1.2373341300071949E-2</v>
+      </c>
     </row>
     <row r="49" spans="1:9">
-      <c r="C49" s="33" t="s">
+      <c r="I49" s="32"/>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="C50" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="D49" s="33"/>
-      <c r="E49" s="33"/>
-      <c r="F49" s="33"/>
-      <c r="G49" s="33"/>
-      <c r="H49" s="33"/>
-    </row>
-    <row r="50" spans="1:9">
-      <c r="B50" t="s">
+      <c r="D50" s="32"/>
+      <c r="E50" s="32"/>
+      <c r="F50" s="32"/>
+      <c r="G50" s="32"/>
+      <c r="H50" s="32"/>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="B51" t="s">
         <v>106</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C51" t="s">
         <v>73</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D51" t="s">
         <v>69</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E51" t="s">
         <v>71</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F51" t="s">
         <v>70</v>
       </c>
-      <c r="G50" t="s">
+      <c r="G51" t="s">
         <v>72</v>
       </c>
-      <c r="H50" t="s">
+      <c r="H51" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
-      <c r="A51" t="s">
+    <row r="52" spans="1:9">
+      <c r="A52" t="s">
         <v>64</v>
       </c>
-      <c r="B51" s="34">
+      <c r="B52" s="33">
         <f>124/3</f>
         <v>41.333333333333336</v>
       </c>
-      <c r="C51" s="38">
+      <c r="C52" s="37">
         <v>57</v>
       </c>
-      <c r="D51" s="34">
-        <f>60/C51</f>
+      <c r="D52" s="33">
+        <f>60/C52</f>
         <v>1.0526315789473684</v>
       </c>
-      <c r="E51" s="49">
+      <c r="E52" s="48">
         <v>20</v>
       </c>
-      <c r="F51" s="47">
-        <f>B51/(D51*E51)</f>
+      <c r="F52" s="46">
+        <f>B52/(D52*E52)</f>
         <v>1.9633333333333336</v>
       </c>
-      <c r="G51" s="20">
-        <f>ROUND(F51,0)</f>
+      <c r="G52" s="20">
+        <f>ROUND(F52,0)</f>
         <v>2</v>
       </c>
-      <c r="H51" s="20">
-        <f>G51*D51*E51</f>
+      <c r="H52" s="20">
+        <f>G52*D52*E52</f>
         <v>42.105263157894733</v>
       </c>
-      <c r="I51" s="32">
-        <f>1-B51/H51</f>
+      <c r="I52" s="31">
+        <f>1-B52/H52</f>
         <v>1.8333333333333202E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
-      <c r="A52" t="s">
+    <row r="53" spans="1:9">
+      <c r="A53" t="s">
         <v>65</v>
       </c>
-      <c r="B52" s="34">
+      <c r="B53" s="33">
         <f>150/3</f>
         <v>50</v>
       </c>
-      <c r="C52" s="38">
+      <c r="C53" s="37">
         <v>25</v>
       </c>
-      <c r="D52" s="34">
-        <f t="shared" ref="D52:D55" si="32">60/C52</f>
+      <c r="D53" s="33">
+        <f t="shared" ref="D53:D56" si="21">60/C53</f>
         <v>2.4</v>
       </c>
-      <c r="E52" s="49">
+      <c r="E53" s="48">
         <v>20</v>
       </c>
-      <c r="F52" s="47">
-        <f>B52/(D52*E52)</f>
+      <c r="F53" s="46">
+        <f>B53/(D53*E53)</f>
         <v>1.0416666666666667</v>
       </c>
-      <c r="G52" s="20">
-        <f t="shared" ref="G52:G55" si="33">ROUND(F52,0)</f>
+      <c r="G53" s="20">
+        <f t="shared" ref="G53:G56" si="22">ROUND(F53,0)</f>
         <v>1</v>
       </c>
-      <c r="H52" s="20">
-        <f t="shared" ref="H52:H55" si="34">G52*D52*E52</f>
+      <c r="H53" s="20">
+        <f t="shared" ref="H53:H56" si="23">G53*D53*E53</f>
         <v>48</v>
       </c>
-      <c r="I52" s="32">
-        <f>1-B52/H52</f>
+      <c r="I53" s="31">
+        <f>1-B53/H53</f>
         <v>-4.1666666666666741E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
-      <c r="A53" t="s">
+    <row r="54" spans="1:9">
+      <c r="A54" t="s">
         <v>66</v>
       </c>
-      <c r="B53" s="35">
+      <c r="B54" s="34">
         <f>30/3</f>
         <v>10</v>
       </c>
-      <c r="C53" s="48">
+      <c r="C54" s="47">
         <v>115</v>
       </c>
-      <c r="D53" s="34">
-        <f t="shared" si="32"/>
+      <c r="D54" s="33">
+        <f t="shared" si="21"/>
         <v>0.52173913043478259</v>
       </c>
-      <c r="E53" s="49">
+      <c r="E54" s="48">
         <v>20</v>
       </c>
-      <c r="F53" s="47">
-        <f>B53/(D53*E53)</f>
+      <c r="F54" s="46">
+        <f>B54/(D54*E54)</f>
         <v>0.95833333333333337</v>
       </c>
-      <c r="G53" s="20">
+      <c r="G54" s="20">
         <v>1</v>
       </c>
-      <c r="H53" s="20">
-        <f t="shared" si="34"/>
+      <c r="H54" s="20">
+        <f t="shared" si="23"/>
         <v>10.434782608695652</v>
       </c>
-      <c r="I53" s="32">
-        <f>1-B53/H53</f>
+      <c r="I54" s="31">
+        <f>1-B54/H54</f>
         <v>4.166666666666663E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
-      <c r="A54" t="s">
+    <row r="55" spans="1:9">
+      <c r="A55" t="s">
         <v>67</v>
       </c>
-      <c r="B54" s="34">
+      <c r="B55" s="33">
         <f>20/3</f>
         <v>6.666666666666667</v>
       </c>
-      <c r="C54" s="38">
+      <c r="C55" s="37">
         <v>180</v>
       </c>
-      <c r="D54" s="34">
-        <f t="shared" si="32"/>
+      <c r="D55" s="33">
+        <f t="shared" si="21"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="E54" s="49">
+      <c r="E55" s="48">
         <v>20</v>
       </c>
-      <c r="F54" s="47">
-        <f>B54/(D54*E54)</f>
+      <c r="F55" s="46">
+        <f>B55/(D55*E55)</f>
         <v>1.0000000000000002</v>
       </c>
-      <c r="G54" s="20">
+      <c r="G55" s="20">
         <v>1</v>
       </c>
-      <c r="H54" s="20">
-        <f t="shared" si="34"/>
+      <c r="H55" s="20">
+        <f t="shared" si="23"/>
         <v>6.6666666666666661</v>
       </c>
-      <c r="I54" s="32">
-        <f>1-B54/H54</f>
+      <c r="I55" s="31">
+        <f>1-B55/H55</f>
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
-      <c r="A55" t="s">
+    <row r="56" spans="1:9">
+      <c r="A56" t="s">
         <v>68</v>
       </c>
-      <c r="B55" s="34">
+      <c r="B56" s="33">
         <f>120/3</f>
         <v>40</v>
       </c>
-      <c r="C55" s="38">
+      <c r="C56" s="37">
         <v>30</v>
       </c>
-      <c r="D55" s="34">
-        <f t="shared" si="32"/>
+      <c r="D56" s="33">
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
-      <c r="E55" s="49">
+      <c r="E56" s="48">
         <v>20</v>
       </c>
-      <c r="F55" s="47">
-        <f>B55/(D55*E55)</f>
+      <c r="F56" s="46">
+        <f>B56/(D56*E56)</f>
         <v>1</v>
       </c>
-      <c r="G55" s="20">
-        <f t="shared" si="33"/>
+      <c r="G56" s="20">
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="H55" s="20">
-        <f t="shared" si="34"/>
+      <c r="H56" s="20">
+        <f t="shared" si="23"/>
         <v>40</v>
       </c>
-      <c r="I55" s="32">
-        <f>1-B55/H55</f>
+      <c r="I56" s="31">
+        <f>1-B56/H56</f>
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
-      <c r="G56" s="20">
-        <f>SUM(G51:G55)</f>
+    <row r="57" spans="1:9">
+      <c r="G57" s="20">
+        <f>SUM(G52:G56)</f>
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId2"/>
@@ -4229,7 +4307,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="str">
-        <f>'Автоматизированный расчет'!A35</f>
+        <f>'Автоматизированный расчет'!A36</f>
         <v>Главная Welcome страница</v>
       </c>
       <c r="B2" t="s">
@@ -4238,7 +4316,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="str">
-        <f>'Автоматизированный расчет'!A36</f>
+        <f>'Автоматизированный расчет'!A37</f>
         <v>Вход в систему</v>
       </c>
       <c r="B3" t="s">
@@ -4247,7 +4325,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="str">
-        <f>'Автоматизированный расчет'!A37</f>
+        <f>'Автоматизированный расчет'!A38</f>
         <v>Переход на страницу поиска билетов</v>
       </c>
       <c r="B4" t="s">
@@ -4256,7 +4334,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="str">
-        <f>'Автоматизированный расчет'!A38</f>
+        <f>'Автоматизированный расчет'!A39</f>
         <v xml:space="preserve">Заполнение полей для поиска билета </v>
       </c>
       <c r="B5" t="s">
@@ -4265,7 +4343,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="str">
-        <f>'Автоматизированный расчет'!A39</f>
+        <f>'Автоматизированный расчет'!A40</f>
         <v xml:space="preserve">Выбор рейса из найденных </v>
       </c>
       <c r="B6" t="s">
@@ -4274,7 +4352,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="str">
-        <f>'Автоматизированный расчет'!A40</f>
+        <f>'Автоматизированный расчет'!A41</f>
         <v>Оплата билета</v>
       </c>
       <c r="B7" t="s">
@@ -4283,7 +4361,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="str">
-        <f>'Автоматизированный расчет'!A41</f>
+        <f>'Автоматизированный расчет'!A42</f>
         <v>Просмотр квитанций</v>
       </c>
       <c r="B8" t="s">
@@ -4292,7 +4370,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="str">
-        <f>'Автоматизированный расчет'!A42</f>
+        <f>'Автоматизированный расчет'!A43</f>
         <v xml:space="preserve">Отмена бронирования </v>
       </c>
       <c r="B9" t="s">
@@ -4301,7 +4379,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="str">
-        <f>'Автоматизированный расчет'!A43</f>
+        <f>'Автоматизированный расчет'!A44</f>
         <v>Выход из системы</v>
       </c>
       <c r="B10" t="s">
@@ -4310,7 +4388,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="str">
-        <f>'Автоматизированный расчет'!A44</f>
+        <f>'Автоматизированный расчет'!A45</f>
         <v>Перход на страницу регистрации</v>
       </c>
       <c r="B11" t="s">
@@ -4319,7 +4397,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="str">
-        <f>'Автоматизированный расчет'!A45</f>
+        <f>'Автоматизированный расчет'!A46</f>
         <v>Заполнение полей регистарции</v>
       </c>
       <c r="B12" t="s">
@@ -4328,7 +4406,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="str">
-        <f>'Автоматизированный расчет'!A46</f>
+        <f>'Автоматизированный расчет'!A47</f>
         <v>Переход на следуюущий эран после регистарции</v>
       </c>
       <c r="B13" t="s">
@@ -4993,13 +5071,13 @@
   </cols>
   <sheetData>
     <row r="9" spans="5:9">
-      <c r="E9" s="74" t="s">
+      <c r="E9" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="74"/>
-      <c r="G9" s="74"/>
-      <c r="H9" s="74"/>
-      <c r="I9" s="74"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="69"/>
     </row>
     <row r="11" spans="5:9" ht="28.5">
       <c r="E11" s="1" t="s">
@@ -5152,13 +5230,13 @@
       </c>
     </row>
     <row r="23" spans="5:9">
-      <c r="E23" s="74" t="s">
+      <c r="E23" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="F23" s="74"/>
-      <c r="G23" s="74"/>
-      <c r="H23" s="74"/>
-      <c r="I23" s="74"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="69"/>
+      <c r="H23" s="69"/>
+      <c r="I23" s="69"/>
     </row>
     <row r="25" spans="5:9">
       <c r="E25" s="8" t="s">
@@ -5318,13 +5396,13 @@
       </c>
     </row>
     <row r="35" spans="5:15">
-      <c r="E35" s="74" t="s">
+      <c r="E35" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="F35" s="74"/>
-      <c r="G35" s="74"/>
-      <c r="H35" s="74"/>
-      <c r="I35" s="74"/>
+      <c r="F35" s="69"/>
+      <c r="G35" s="69"/>
+      <c r="H35" s="69"/>
+      <c r="I35" s="69"/>
     </row>
     <row r="37" spans="5:15">
       <c r="E37" s="8" t="s">

--- a/Документация/WebTours Профиль нагрузки_Журавлев.xlsx
+++ b/Документация/WebTours Профиль нагрузки_Журавлев.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr hidePivotFieldList="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="495" windowWidth="20730" windowHeight="11760"/>
@@ -14,22 +14,8 @@
   </sheets>
   <calcPr calcId="125725"/>
   <pivotCaches>
-    <pivotCache cacheId="30" r:id="rId5"/>
+    <pivotCache cacheId="3" r:id="rId5"/>
   </pivotCaches>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -224,7 +210,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="105">
   <si>
     <t>Вход в систему</t>
   </si>
@@ -487,57 +473,15 @@
     <t>90 Percent</t>
   </si>
   <si>
-    <t>choose_flight</t>
-  </si>
-  <si>
     <t>No Data</t>
   </si>
   <si>
     <t>click_flights</t>
   </si>
   <si>
-    <t>click_itinerary</t>
-  </si>
-  <si>
-    <t>click_sign_off</t>
-  </si>
-  <si>
     <t>click_sign_up_now</t>
   </si>
   <si>
-    <t>customer_profile</t>
-  </si>
-  <si>
-    <t>delete_ticket</t>
-  </si>
-  <si>
-    <t>fill_payment_details</t>
-  </si>
-  <si>
-    <t>find_flight</t>
-  </si>
-  <si>
-    <t>open_site</t>
-  </si>
-  <si>
-    <t>UC01_registration</t>
-  </si>
-  <si>
-    <t>UC02_BuyTicket</t>
-  </si>
-  <si>
-    <t>UC03_ViewItinerary</t>
-  </si>
-  <si>
-    <t>UC04_DeleteTicket</t>
-  </si>
-  <si>
-    <t>UC05_BuyTicket_without_payment</t>
-  </si>
-  <si>
-    <t>UC06_BuyTicket_without_view_receipt</t>
-  </si>
-  <si>
     <t>ScriptName</t>
   </si>
   <si>
@@ -571,9 +515,6 @@
     <t>03_BuyTicket</t>
   </si>
   <si>
-    <t>04_NewUsr</t>
-  </si>
-  <si>
     <t>05_DeleteBooking</t>
   </si>
   <si>
@@ -581,6 +522,9 @@
   </si>
   <si>
     <t>02_Login</t>
+  </si>
+  <si>
+    <t>04_NewUsr_plus_find_ticket</t>
   </si>
 </sst>
 </file>
@@ -591,12 +535,20 @@
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -824,6 +776,23 @@
       <name val="Tahoma"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="43">
@@ -1386,93 +1355,115 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="45">
+  <cellStyleXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="10" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="10" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="10" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="42" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="42" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1482,16 +1473,16 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="44" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="38" borderId="2" xfId="44" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1504,28 +1495,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="35" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="39" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="39" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="39" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="39" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="39" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="39" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="39" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="39" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="39" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -1535,14 +1526,14 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="20" xfId="44" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="44" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="21" xfId="44" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="36" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -1555,6 +1546,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="45"/>
     <xf numFmtId="0" fontId="0" fillId="41" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1564,33 +1563,44 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="45">
+  <cellStyles count="67">
     <cellStyle name="20% - Акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Акцент1 2" xfId="49"/>
     <cellStyle name="20% - Акцент2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Акцент2 2" xfId="52"/>
     <cellStyle name="20% - Акцент3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Акцент3 2" xfId="55"/>
     <cellStyle name="20% - Акцент4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Акцент4 2" xfId="58"/>
     <cellStyle name="20% - Акцент5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Акцент5 2" xfId="61"/>
     <cellStyle name="20% - Акцент6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="20% - Акцент6 2" xfId="64"/>
     <cellStyle name="40% - Акцент1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Акцент1 2" xfId="50"/>
     <cellStyle name="40% - Акцент2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Акцент2 2" xfId="53"/>
     <cellStyle name="40% - Акцент3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Акцент3 2" xfId="56"/>
     <cellStyle name="40% - Акцент4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Акцент4 2" xfId="59"/>
     <cellStyle name="40% - Акцент5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Акцент5 2" xfId="62"/>
     <cellStyle name="40% - Акцент6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="40% - Акцент6 2" xfId="65"/>
     <cellStyle name="60% - Акцент1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Акцент1 2" xfId="51"/>
     <cellStyle name="60% - Акцент2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Акцент2 2" xfId="54"/>
     <cellStyle name="60% - Акцент3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Акцент3 2" xfId="57"/>
     <cellStyle name="60% - Акцент4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Акцент4 2" xfId="60"/>
     <cellStyle name="60% - Акцент5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Акцент5 2" xfId="63"/>
     <cellStyle name="60% - Акцент6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="60% - Акцент6 2" xfId="66"/>
     <cellStyle name="Акцент1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Акцент2" xfId="22" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Акцент3" xfId="26" builtinId="37" customBuiltin="1"/>
@@ -1607,38 +1617,34 @@
     <cellStyle name="Итог" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Контрольная ячейка" xfId="14" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Название" xfId="5" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Название 2" xfId="46"/>
     <cellStyle name="Нейтральный" xfId="3" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Нейтральный 2" xfId="47"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="4"/>
     <cellStyle name="Обычный 3" xfId="42"/>
+    <cellStyle name="Обычный 4" xfId="45"/>
     <cellStyle name="Плохой" xfId="2" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Пояснение" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Примечание 2" xfId="43"/>
+    <cellStyle name="Примечание 3" xfId="48"/>
     <cellStyle name="Процентный" xfId="44" builtinId="5"/>
     <cellStyle name="Связанная ячейка" xfId="13" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Текст предупреждения" xfId="15" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Хороший" xfId="1" builtinId="26" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
       <color rgb="FFFFCCCC"/>
     </mruColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="AZ" refreshedDate="44814.459155902776" createdVersion="6" refreshedVersion="3" minRefreshableVersion="3" recordCount="30">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="AZ" refreshedDate="44818.848607870372" createdVersion="6" refreshedVersion="3" minRefreshableVersion="3" recordCount="30">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:H31" sheet="Автоматизированный расчет"/>
   </cacheSource>
@@ -1706,7 +1712,7 @@
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="30">
   <r>
-    <s v="04_NewUsr"/>
+    <s v="04_NewUsr_plus_find_ticket"/>
     <x v="0"/>
     <n v="1"/>
     <n v="2"/>
@@ -1716,7 +1722,7 @@
     <n v="30.76923076923077"/>
   </r>
   <r>
-    <s v="04_NewUsr"/>
+    <s v="04_NewUsr_plus_find_ticket"/>
     <x v="1"/>
     <n v="1"/>
     <n v="2"/>
@@ -1726,7 +1732,7 @@
     <n v="30.76923076923077"/>
   </r>
   <r>
-    <s v="04_NewUsr"/>
+    <s v="04_NewUsr_plus_find_ticket"/>
     <x v="2"/>
     <n v="1"/>
     <n v="2"/>
@@ -1736,7 +1742,7 @@
     <n v="30.76923076923077"/>
   </r>
   <r>
-    <s v="04_NewUsr"/>
+    <s v="04_NewUsr_plus_find_ticket"/>
     <x v="3"/>
     <n v="1"/>
     <n v="2"/>
@@ -1746,7 +1752,7 @@
     <n v="30.76923076923077"/>
   </r>
   <r>
-    <s v="04_NewUsr"/>
+    <s v="04_NewUsr_plus_find_ticket"/>
     <x v="4"/>
     <n v="1"/>
     <n v="2"/>
@@ -1756,7 +1762,7 @@
     <n v="30.76923076923077"/>
   </r>
   <r>
-    <s v="04_NewUsr"/>
+    <s v="04_NewUsr_plus_find_ticket"/>
     <x v="5"/>
     <n v="1"/>
     <n v="2"/>
@@ -1766,7 +1772,7 @@
     <n v="30.76923076923077"/>
   </r>
   <r>
-    <s v="04_NewUsr"/>
+    <s v="04_NewUsr_plus_find_ticket"/>
     <x v="6"/>
     <n v="1"/>
     <n v="2"/>
@@ -1776,7 +1782,7 @@
     <n v="30.76923076923077"/>
   </r>
   <r>
-    <s v="04_NewUsr"/>
+    <s v="04_NewUsr_plus_find_ticket"/>
     <x v="7"/>
     <n v="1"/>
     <n v="2"/>
@@ -2009,7 +2015,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица2" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="3" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="3" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="J1:K14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
@@ -2368,7 +2374,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2379,7 +2385,7 @@
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -2466,12 +2472,12 @@
     </row>
     <row r="2" spans="1:24">
       <c r="A2" s="60" t="s">
-        <v>115</v>
-      </c>
-      <c r="B2" s="73" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" s="70" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="74">
+      <c r="C2" s="71">
         <v>1</v>
       </c>
       <c r="D2" s="62">
@@ -2500,7 +2506,7 @@
         <v>169.99095022624437</v>
       </c>
       <c r="M2" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="N2" s="24">
         <v>2.173</v>
@@ -2540,12 +2546,12 @@
     </row>
     <row r="3" spans="1:24">
       <c r="A3" s="60" t="s">
-        <v>115</v>
-      </c>
-      <c r="B3" s="73" t="s">
-        <v>92</v>
-      </c>
-      <c r="C3" s="74">
+        <v>104</v>
+      </c>
+      <c r="B3" s="70" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="71">
         <v>1</v>
       </c>
       <c r="D3" s="63">
@@ -2568,13 +2574,13 @@
         <v>30.76923076923077</v>
       </c>
       <c r="J3" s="17" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K3" s="15">
         <v>30.76923076923077</v>
       </c>
       <c r="M3" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="N3" s="24">
         <v>1.1164000000000001</v>
@@ -2583,7 +2589,7 @@
         <v>9.9761000000000006</v>
       </c>
       <c r="P3" s="30">
-        <f t="shared" ref="P3:P9" si="0">N3+O3</f>
+        <f t="shared" ref="P3:P5" si="0">N3+O3</f>
         <v>11.092500000000001</v>
       </c>
       <c r="Q3" s="37">
@@ -2610,12 +2616,12 @@
     </row>
     <row r="4" spans="1:24">
       <c r="A4" s="60" t="s">
-        <v>115</v>
-      </c>
-      <c r="B4" s="73" t="s">
-        <v>112</v>
-      </c>
-      <c r="C4" s="74">
+        <v>104</v>
+      </c>
+      <c r="B4" s="70" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="71">
         <v>1</v>
       </c>
       <c r="D4" s="63">
@@ -2638,13 +2644,13 @@
         <v>30.76923076923077</v>
       </c>
       <c r="J4" s="17" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="K4" s="15">
         <v>30.76923076923077</v>
       </c>
       <c r="M4" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="N4" s="24">
         <v>1.9841</v>
@@ -2680,12 +2686,12 @@
     </row>
     <row r="5" spans="1:24">
       <c r="A5" s="60" t="s">
-        <v>115</v>
-      </c>
-      <c r="B5" s="73" t="s">
-        <v>113</v>
-      </c>
-      <c r="C5" s="74">
+        <v>104</v>
+      </c>
+      <c r="B5" s="70" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="71">
         <v>1</v>
       </c>
       <c r="D5" s="63">
@@ -2708,28 +2714,28 @@
         <v>30.76923076923077</v>
       </c>
       <c r="J5" s="17" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="K5" s="15">
         <v>30.76923076923077</v>
       </c>
       <c r="M5" t="s">
-        <v>115</v>
-      </c>
-      <c r="N5" s="71">
+        <v>104</v>
+      </c>
+      <c r="N5" s="68">
         <v>2.234</v>
       </c>
-      <c r="O5" s="71">
+      <c r="O5" s="68">
         <v>35.0687</v>
       </c>
-      <c r="P5" s="72">
+      <c r="P5" s="69">
         <f t="shared" si="0"/>
         <v>37.302700000000002</v>
       </c>
-      <c r="Q5" s="70">
+      <c r="Q5" s="67">
         <v>78</v>
       </c>
-      <c r="R5" s="70">
+      <c r="R5" s="67">
         <v>2</v>
       </c>
       <c r="S5" s="19">
@@ -2750,12 +2756,12 @@
     </row>
     <row r="6" spans="1:24">
       <c r="A6" s="60" t="s">
-        <v>115</v>
-      </c>
-      <c r="B6" s="73" t="s">
-        <v>89</v>
-      </c>
-      <c r="C6" s="74">
+        <v>104</v>
+      </c>
+      <c r="B6" s="70" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="71">
         <v>1</v>
       </c>
       <c r="D6" s="63">
@@ -2784,7 +2790,7 @@
         <v>114.60633484162896</v>
       </c>
       <c r="M6" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="N6" s="24">
         <v>1.5307999999999999</v>
@@ -2820,12 +2826,12 @@
     </row>
     <row r="7" spans="1:24">
       <c r="A7" s="60" t="s">
-        <v>115</v>
-      </c>
-      <c r="B7" s="73" t="s">
-        <v>107</v>
-      </c>
-      <c r="C7" s="74">
+        <v>104</v>
+      </c>
+      <c r="B7" s="70" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" s="71">
         <v>1</v>
       </c>
       <c r="D7" s="63">
@@ -2866,12 +2872,12 @@
     </row>
     <row r="8" spans="1:24">
       <c r="A8" s="60" t="s">
-        <v>115</v>
-      </c>
-      <c r="B8" s="75" t="s">
-        <v>108</v>
-      </c>
-      <c r="C8" s="74">
+        <v>104</v>
+      </c>
+      <c r="B8" s="72" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" s="71">
         <v>1</v>
       </c>
       <c r="D8" s="63">
@@ -2894,7 +2900,7 @@
         <v>30.76923076923077</v>
       </c>
       <c r="J8" s="17" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="K8" s="15">
         <v>91.221719457013577</v>
@@ -2912,20 +2918,20 @@
     </row>
     <row r="9" spans="1:24" ht="15.75" thickBot="1">
       <c r="A9" s="60" t="s">
-        <v>115</v>
-      </c>
-      <c r="B9" s="73" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="74">
+      <c r="C9" s="71">
         <v>1</v>
       </c>
       <c r="D9" s="64">
-        <f>VLOOKUP(A9,$M$1:$W$11,6,FALSE)</f>
+        <f t="shared" ref="D9:D30" si="8">VLOOKUP(A9,$M$1:$W$11,6,FALSE)</f>
         <v>2</v>
       </c>
       <c r="E9">
-        <f>VLOOKUP(A9,$M$1:$W$11,5,FALSE)</f>
+        <f t="shared" ref="E9:E30" si="9">VLOOKUP(A9,$M$1:$W$11,5,FALSE)</f>
         <v>78</v>
       </c>
       <c r="F9" s="21">
@@ -2940,7 +2946,7 @@
         <v>30.76923076923077</v>
       </c>
       <c r="J9" s="17" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="K9" s="15">
         <v>23.529411764705884</v>
@@ -2948,20 +2954,20 @@
     </row>
     <row r="10" spans="1:24">
       <c r="A10" t="s">
-        <v>116</v>
-      </c>
-      <c r="B10" s="73" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10" s="70" t="s">
         <v>80</v>
       </c>
-      <c r="C10" s="74">
+      <c r="C10" s="71">
         <v>1</v>
       </c>
       <c r="D10" s="62">
-        <f>VLOOKUP(A10,$M$1:$W$11,6,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E10">
-        <f>VLOOKUP(A10,$M$1:$W$11,5,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>51</v>
       </c>
       <c r="F10" s="21">
@@ -2976,7 +2982,7 @@
         <v>23.529411764705884</v>
       </c>
       <c r="J10" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K10" s="15">
         <v>98.461538461538467</v>
@@ -2993,20 +2999,20 @@
     </row>
     <row r="11" spans="1:24">
       <c r="A11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B11" s="73" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="74">
+      <c r="C11" s="71">
         <v>1</v>
       </c>
       <c r="D11" s="63">
-        <f>VLOOKUP(A11,$M$1:$W$11,6,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E11" s="20">
-        <f>VLOOKUP(A11,$M$1:$W$11,5,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>51</v>
       </c>
       <c r="F11" s="21">
@@ -3017,11 +3023,11 @@
         <v>20</v>
       </c>
       <c r="H11" s="20">
-        <f t="shared" ref="H11" si="8">D11*F11*G11</f>
+        <f t="shared" ref="H11" si="10">D11*F11*G11</f>
         <v>23.529411764705884</v>
       </c>
       <c r="J11" s="17" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="K11" s="15">
         <v>86.15384615384616</v>
@@ -3029,20 +3035,20 @@
     </row>
     <row r="12" spans="1:24">
       <c r="A12" t="s">
-        <v>116</v>
-      </c>
-      <c r="B12" s="73" t="s">
-        <v>110</v>
-      </c>
-      <c r="C12" s="74">
+        <v>101</v>
+      </c>
+      <c r="B12" s="70" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" s="71">
         <v>1</v>
       </c>
       <c r="D12" s="63">
-        <f>VLOOKUP(A12,$M$1:$W$11,6,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E12" s="20">
-        <f>VLOOKUP(A12,$M$1:$W$11,5,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>51</v>
       </c>
       <c r="F12" s="21">
@@ -3057,7 +3063,7 @@
         <v>23.529411764705884</v>
       </c>
       <c r="J12" s="17" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="K12" s="15">
         <v>55.384615384615387</v>
@@ -3065,20 +3071,20 @@
     </row>
     <row r="13" spans="1:24">
       <c r="A13" t="s">
-        <v>116</v>
-      </c>
-      <c r="B13" s="73" t="s">
-        <v>111</v>
-      </c>
-      <c r="C13" s="74">
+        <v>101</v>
+      </c>
+      <c r="B13" s="70" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" s="71">
         <v>1</v>
       </c>
       <c r="D13" s="63">
-        <f>VLOOKUP(A13,$M$1:$W$11,6,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E13" s="20">
-        <f>VLOOKUP(A13,$M$1:$W$11,5,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>51</v>
       </c>
       <c r="F13" s="21">
@@ -3093,7 +3099,7 @@
         <v>23.529411764705884</v>
       </c>
       <c r="J13" s="17" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="K13" s="15">
         <v>98.461538461538467</v>
@@ -3101,20 +3107,20 @@
     </row>
     <row r="14" spans="1:24" ht="15.75" thickBot="1">
       <c r="A14" t="s">
-        <v>116</v>
-      </c>
-      <c r="B14" s="73" t="s">
+        <v>101</v>
+      </c>
+      <c r="B14" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="74">
+      <c r="C14" s="71">
         <v>1</v>
       </c>
       <c r="D14" s="64">
-        <f>VLOOKUP(A14,$M$1:$W$11,6,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E14" s="20">
-        <f>VLOOKUP(A14,$M$1:$W$11,5,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>51</v>
       </c>
       <c r="F14" s="21">
@@ -3137,20 +3143,20 @@
     </row>
     <row r="15" spans="1:24">
       <c r="A15" s="61" t="s">
-        <v>114</v>
-      </c>
-      <c r="B15" s="73" t="s">
+        <v>100</v>
+      </c>
+      <c r="B15" s="70" t="s">
         <v>80</v>
       </c>
-      <c r="C15" s="74">
+      <c r="C15" s="71">
         <v>1</v>
       </c>
       <c r="D15" s="62">
-        <f>VLOOKUP(A15,$M$1:$W$11,6,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="E15" s="20">
-        <f>VLOOKUP(A15,$M$1:$W$11,5,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>65</v>
       </c>
       <c r="F15" s="21">
@@ -3167,20 +3173,20 @@
     </row>
     <row r="16" spans="1:24">
       <c r="A16" t="s">
-        <v>114</v>
-      </c>
-      <c r="B16" s="73" t="s">
+        <v>100</v>
+      </c>
+      <c r="B16" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="74">
+      <c r="C16" s="71">
         <v>1</v>
       </c>
       <c r="D16" s="63">
-        <f>VLOOKUP(A16,$M$1:$W$11,6,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="E16" s="20">
-        <f>VLOOKUP(A16,$M$1:$W$11,5,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>65</v>
       </c>
       <c r="F16" s="21">
@@ -3191,26 +3197,26 @@
         <v>20</v>
       </c>
       <c r="H16" s="20">
-        <f t="shared" ref="H16" si="9">D16*F16*G16</f>
+        <f t="shared" ref="H16" si="11">D16*F16*G16</f>
         <v>55.384615384615387</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>114</v>
-      </c>
-      <c r="B17" s="73" t="s">
-        <v>89</v>
-      </c>
-      <c r="C17" s="74">
+        <v>100</v>
+      </c>
+      <c r="B17" s="70" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" s="71">
         <v>1</v>
       </c>
       <c r="D17" s="63">
-        <f>VLOOKUP(A17,$M$1:$W$11,6,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="E17" s="20">
-        <f>VLOOKUP(A17,$M$1:$W$11,5,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>65</v>
       </c>
       <c r="F17" s="21">
@@ -3227,20 +3233,20 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>114</v>
-      </c>
-      <c r="B18" s="73" t="s">
-        <v>107</v>
-      </c>
-      <c r="C18" s="74">
+        <v>100</v>
+      </c>
+      <c r="B18" s="70" t="s">
+        <v>93</v>
+      </c>
+      <c r="C18" s="71">
         <v>1</v>
       </c>
       <c r="D18" s="63">
-        <f>VLOOKUP(A18,$M$1:$W$11,6,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="E18" s="20">
-        <f>VLOOKUP(A18,$M$1:$W$11,5,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>65</v>
       </c>
       <c r="F18" s="21">
@@ -3257,20 +3263,20 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>114</v>
-      </c>
-      <c r="B19" s="73" t="s">
-        <v>108</v>
-      </c>
-      <c r="C19" s="74">
+        <v>100</v>
+      </c>
+      <c r="B19" s="70" t="s">
+        <v>94</v>
+      </c>
+      <c r="C19" s="71">
         <v>1</v>
       </c>
       <c r="D19" s="63">
-        <f>VLOOKUP(A19,$M$1:$W$11,6,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="E19" s="20">
-        <f>VLOOKUP(A19,$M$1:$W$11,5,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>65</v>
       </c>
       <c r="F19" s="21">
@@ -3287,20 +3293,20 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>114</v>
-      </c>
-      <c r="B20" s="73" t="s">
-        <v>109</v>
-      </c>
-      <c r="C20" s="74">
+        <v>100</v>
+      </c>
+      <c r="B20" s="70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C20" s="71">
         <v>1</v>
       </c>
       <c r="D20" s="63">
-        <f>VLOOKUP(A20,$M$1:$W$11,6,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="E20" s="20">
-        <f>VLOOKUP(A20,$M$1:$W$11,5,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>65</v>
       </c>
       <c r="F20" s="21">
@@ -3317,200 +3323,200 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" thickBot="1">
       <c r="A21" t="s">
-        <v>114</v>
-      </c>
-      <c r="B21" s="73" t="s">
-        <v>110</v>
-      </c>
-      <c r="C21" s="74">
+        <v>100</v>
+      </c>
+      <c r="B21" s="70" t="s">
+        <v>96</v>
+      </c>
+      <c r="C21" s="71">
         <v>1</v>
       </c>
       <c r="D21" s="63">
-        <f>VLOOKUP(A21,$M$1:$W$11,6,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="E21">
-        <f>VLOOKUP(A21,$M$1:$W$11,5,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>65</v>
       </c>
       <c r="F21" s="21">
-        <f t="shared" ref="F21:F25" si="10">60/E21*C21</f>
+        <f t="shared" ref="F21:F25" si="12">60/E21*C21</f>
         <v>0.92307692307692313</v>
       </c>
       <c r="G21">
         <v>20</v>
       </c>
       <c r="H21" s="20">
-        <f t="shared" ref="H21:H25" si="11">D21*F21*G21</f>
+        <f t="shared" ref="H21:H25" si="13">D21*F21*G21</f>
         <v>55.384615384615387</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>117</v>
-      </c>
-      <c r="B22" s="73" t="s">
+        <v>102</v>
+      </c>
+      <c r="B22" s="70" t="s">
         <v>80</v>
       </c>
-      <c r="C22" s="74">
+      <c r="C22" s="71">
         <v>1</v>
       </c>
       <c r="D22" s="62">
-        <f>VLOOKUP(A22,$M$1:$W$11,6,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="E22">
-        <f>VLOOKUP(A22,$M$1:$W$11,5,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>195</v>
       </c>
       <c r="F22" s="21">
-        <f t="shared" ref="F22" si="12">60/E22*C22</f>
+        <f t="shared" ref="F22" si="14">60/E22*C22</f>
         <v>0.30769230769230771</v>
       </c>
       <c r="G22">
         <v>20</v>
       </c>
       <c r="H22" s="20">
-        <f t="shared" ref="H22" si="13">D22*F22*G22</f>
+        <f t="shared" ref="H22" si="15">D22*F22*G22</f>
         <v>12.307692307692308</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>117</v>
-      </c>
-      <c r="B23" s="73" t="s">
+        <v>102</v>
+      </c>
+      <c r="B23" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="74">
+      <c r="C23" s="71">
         <v>1</v>
       </c>
       <c r="D23" s="63">
-        <f>VLOOKUP(A23,$M$1:$W$11,6,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="E23">
-        <f>VLOOKUP(A23,$M$1:$W$11,5,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>195</v>
       </c>
       <c r="F23" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.30769230769230771</v>
       </c>
       <c r="G23">
         <v>20</v>
       </c>
       <c r="H23" s="20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>12.307692307692308</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>117</v>
-      </c>
-      <c r="B24" s="73" t="s">
-        <v>89</v>
-      </c>
-      <c r="C24" s="74">
+        <v>102</v>
+      </c>
+      <c r="B24" s="70" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="71">
         <v>1</v>
       </c>
       <c r="D24" s="63">
-        <f>VLOOKUP(A24,$M$1:$W$11,6,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="E24">
-        <f>VLOOKUP(A24,$M$1:$W$11,5,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>195</v>
       </c>
       <c r="F24" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.30769230769230771</v>
       </c>
       <c r="G24">
         <v>20</v>
       </c>
       <c r="H24" s="20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>12.307692307692308</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>117</v>
-      </c>
-      <c r="B25" s="73" t="s">
-        <v>107</v>
-      </c>
-      <c r="C25" s="74">
+        <v>102</v>
+      </c>
+      <c r="B25" s="70" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25" s="71">
         <v>1</v>
       </c>
       <c r="D25" s="63">
-        <f>VLOOKUP(A25,$M$1:$W$11,6,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="E25">
-        <f>VLOOKUP(A25,$M$1:$W$11,5,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>195</v>
       </c>
       <c r="F25" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.30769230769230771</v>
       </c>
       <c r="G25">
         <v>20</v>
       </c>
       <c r="H25" s="20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>12.307692307692308</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>117</v>
-      </c>
-      <c r="B26" s="73" t="s">
-        <v>110</v>
-      </c>
-      <c r="C26" s="74">
+        <v>102</v>
+      </c>
+      <c r="B26" s="70" t="s">
+        <v>96</v>
+      </c>
+      <c r="C26" s="71">
         <v>1</v>
       </c>
       <c r="D26" s="63">
-        <f>VLOOKUP(A26,$M$1:$W$11,6,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="E26">
-        <f>VLOOKUP(A26,$M$1:$W$11,5,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>195</v>
       </c>
       <c r="F26" s="21">
-        <f t="shared" ref="F26" si="14">60/E26*C26</f>
+        <f t="shared" ref="F26" si="16">60/E26*C26</f>
         <v>0.30769230769230771</v>
       </c>
       <c r="G26">
         <v>20</v>
       </c>
       <c r="H26" s="20">
-        <f t="shared" ref="H26" si="15">D26*F26*G26</f>
+        <f t="shared" ref="H26" si="17">D26*F26*G26</f>
         <v>12.307692307692308</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" thickBot="1">
       <c r="A27" t="s">
-        <v>117</v>
-      </c>
-      <c r="B27" s="73" t="s">
+        <v>102</v>
+      </c>
+      <c r="B27" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="74">
+      <c r="C27" s="71">
         <v>1</v>
       </c>
       <c r="D27" s="64">
-        <f>VLOOKUP(A27,$M$1:$W$11,6,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="E27">
-        <f>VLOOKUP(A27,$M$1:$W$11,5,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>195</v>
       </c>
       <c r="F27" s="21">
@@ -3527,20 +3533,20 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>118</v>
-      </c>
-      <c r="B28" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="B28" s="70" t="s">
         <v>80</v>
       </c>
-      <c r="C28" s="74">
+      <c r="C28" s="71">
         <v>1</v>
       </c>
       <c r="D28" s="62">
-        <f>VLOOKUP(A28,$M$1:$W$11,6,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="E28">
-        <f>VLOOKUP(A28,$M$1:$W$11,5,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>50</v>
       </c>
       <c r="F28" s="21">
@@ -3557,20 +3563,20 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>118</v>
-      </c>
-      <c r="B29" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="B29" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="74">
+      <c r="C29" s="71">
         <v>1</v>
       </c>
       <c r="D29" s="63">
-        <f>VLOOKUP(A29,$M$1:$W$11,6,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="E29">
-        <f>VLOOKUP(A29,$M$1:$W$11,5,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>50</v>
       </c>
       <c r="F29" s="21">
@@ -3587,20 +3593,20 @@
     </row>
     <row r="30" spans="1:8" ht="15.75" thickBot="1">
       <c r="A30" t="s">
-        <v>118</v>
-      </c>
-      <c r="B30" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="B30" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="76">
+      <c r="C30" s="73">
         <v>1</v>
       </c>
       <c r="D30" s="64">
-        <f>VLOOKUP(A30,$M$1:$W$11,6,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="E30">
-        <f>VLOOKUP(A30,$M$1:$W$11,5,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>50</v>
       </c>
       <c r="F30" s="21">
@@ -3627,10 +3633,10 @@
     </row>
     <row r="33" spans="1:9" ht="15.75" thickBot="1"/>
     <row r="34" spans="1:9">
-      <c r="A34" s="67" t="s">
+      <c r="A34" s="75" t="s">
         <v>77</v>
       </c>
-      <c r="B34" s="68"/>
+      <c r="B34" s="76"/>
     </row>
     <row r="35" spans="1:9" ht="93.75">
       <c r="A35" s="39" t="s">
@@ -3647,7 +3653,7 @@
       </c>
       <c r="E35" s="56"/>
       <c r="F35" s="55" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="G35" s="29" t="s">
         <v>54</v>
@@ -3667,11 +3673,11 @@
         <v>520</v>
       </c>
       <c r="C36" s="28">
-        <f>GETPIVOTDATA("Итого",$J$1,"transaction rq",F36)*3</f>
+        <f t="shared" ref="C36:C47" si="18">GETPIVOTDATA("Итого",$J$1,"transaction rq",F36)*3</f>
         <v>509.9728506787331</v>
       </c>
       <c r="D36" s="54">
-        <f t="shared" ref="D36:D37" si="16">1-B36/C36</f>
+        <f t="shared" ref="D36:D37" si="19">1-B36/C36</f>
         <v>-1.9662123793299235E-2</v>
       </c>
       <c r="E36" s="52"/>
@@ -3685,11 +3691,11 @@
       </c>
       <c r="H36" s="49">
         <f>VLOOKUP(F36,SummaryReport!A:J,8,FALSE)</f>
-        <v>34</v>
+        <v>168</v>
       </c>
       <c r="I36" s="26">
-        <f t="shared" ref="I36:I47" si="17">1-G36/H36</f>
-        <v>-3.9997338301836578</v>
+        <f t="shared" ref="I36:I47" si="20">1-G36/H36</f>
+        <v>-1.185089420383556E-2</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="18.75">
@@ -3700,11 +3706,11 @@
         <v>422</v>
       </c>
       <c r="C37" s="28">
-        <f>GETPIVOTDATA("Итого",$J$1,"transaction rq",F37)*3</f>
+        <f t="shared" si="18"/>
         <v>417.66515837104077</v>
       </c>
       <c r="D37" s="54">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>-1.0378748483272471E-2</v>
       </c>
       <c r="E37" s="52"/>
@@ -3713,15 +3719,16 @@
         <v>login</v>
       </c>
       <c r="G37" s="57">
-        <f t="shared" ref="G37:G47" si="18">C37/3</f>
+        <f t="shared" ref="G37:G47" si="21">C37/3</f>
         <v>139.22171945701359</v>
       </c>
       <c r="H37" s="49">
-        <v>26</v>
+        <f>VLOOKUP(F37,SummaryReport!A:J,8,FALSE)</f>
+        <v>137</v>
       </c>
       <c r="I37" s="26">
-        <f t="shared" si="17"/>
-        <v>-4.354681517577446</v>
+        <f t="shared" si="20"/>
+        <v>-1.6216930343164959E-2</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="56.25">
@@ -3732,11 +3739,11 @@
         <v>305</v>
       </c>
       <c r="C38" s="28">
-        <f>GETPIVOTDATA("Итого",$J$1,"transaction rq",F38)*3</f>
+        <f t="shared" si="18"/>
         <v>295.38461538461542</v>
       </c>
       <c r="D38" s="54">
-        <f t="shared" ref="D38" si="19">1-B38/C38</f>
+        <f t="shared" ref="D38" si="22">1-B38/C38</f>
         <v>-3.2552083333333259E-2</v>
       </c>
       <c r="E38" s="52"/>
@@ -3745,14 +3752,17 @@
         <v>click_flights</v>
       </c>
       <c r="G38" s="57">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>98.461538461538467</v>
       </c>
       <c r="H38" s="49">
         <f>VLOOKUP(F38,SummaryReport!A:J,8,FALSE)</f>
-        <v>106</v>
-      </c>
-      <c r="I38" s="26"/>
+        <v>97</v>
+      </c>
+      <c r="I38" s="26">
+        <f t="shared" si="20"/>
+        <v>-1.5067406819984086E-2</v>
+      </c>
     </row>
     <row r="39" spans="1:9" ht="37.5">
       <c r="A39" s="42" t="s">
@@ -3762,11 +3772,11 @@
         <v>282</v>
       </c>
       <c r="C39" s="28">
-        <f>GETPIVOTDATA("Итого",$J$1,"transaction rq",F39)*3</f>
+        <f t="shared" si="18"/>
         <v>295.38461538461542</v>
       </c>
       <c r="D39" s="50">
-        <f t="shared" ref="D39:D48" si="20">1-B39/C39</f>
+        <f t="shared" ref="D39:D48" si="23">1-B39/C39</f>
         <v>4.5312500000000089E-2</v>
       </c>
       <c r="E39" s="52"/>
@@ -3775,16 +3785,16 @@
         <v>find_ticket</v>
       </c>
       <c r="G39" s="57">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>98.461538461538467</v>
       </c>
-      <c r="H39" s="49" t="e">
+      <c r="H39" s="49">
         <f>VLOOKUP(F39,SummaryReport!A:J,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I39" s="26" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
+        <v>95</v>
+      </c>
+      <c r="I39" s="26">
+        <f t="shared" si="20"/>
+        <v>-3.6437246963562764E-2</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="37.5">
@@ -3795,11 +3805,11 @@
         <v>270</v>
       </c>
       <c r="C40" s="28">
-        <f>GETPIVOTDATA("Итого",$J$1,"transaction rq",F40)*3</f>
+        <f t="shared" si="18"/>
         <v>258.46153846153845</v>
       </c>
       <c r="D40" s="50">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>-4.4642857142857206E-2</v>
       </c>
       <c r="E40" s="52"/>
@@ -3808,16 +3818,16 @@
         <v>choice_ticket</v>
       </c>
       <c r="G40" s="57">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>86.153846153846146</v>
       </c>
-      <c r="H40" s="49" t="e">
+      <c r="H40" s="49">
         <f>VLOOKUP(F40,SummaryReport!A:J,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I40" s="26" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
+        <v>82</v>
+      </c>
+      <c r="I40" s="26">
+        <f t="shared" si="20"/>
+        <v>-5.0656660412757848E-2</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="18.75">
@@ -3828,11 +3838,11 @@
         <v>175</v>
       </c>
       <c r="C41" s="28">
-        <f>GETPIVOTDATA("Итого",$J$1,"transaction rq",F41)*3</f>
+        <f t="shared" si="18"/>
         <v>166.15384615384616</v>
       </c>
       <c r="D41" s="50">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>-5.32407407407407E-2</v>
       </c>
       <c r="E41" s="52"/>
@@ -3841,16 +3851,16 @@
         <v>buy_ticket</v>
       </c>
       <c r="G41" s="57">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>55.384615384615387</v>
       </c>
-      <c r="H41" s="49" t="e">
+      <c r="H41" s="49">
         <f>VLOOKUP(F41,SummaryReport!A:J,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I41" s="26" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
+        <v>53</v>
+      </c>
+      <c r="I41" s="26">
+        <f t="shared" si="20"/>
+        <v>-4.4992743105950694E-2</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="37.5">
@@ -3861,11 +3871,11 @@
         <v>280</v>
       </c>
       <c r="C42" s="28">
-        <f>GETPIVOTDATA("Итого",$J$1,"transaction rq",F42)*3</f>
+        <f t="shared" si="18"/>
         <v>273.66515837104072</v>
       </c>
       <c r="D42" s="50">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>-2.314814814814814E-2</v>
       </c>
       <c r="E42" s="52"/>
@@ -3874,16 +3884,16 @@
         <v>click_Itinerary</v>
       </c>
       <c r="G42" s="57">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>91.221719457013577</v>
       </c>
       <c r="H42" s="49">
         <f>VLOOKUP(F42,SummaryReport!A:J,8,FALSE)</f>
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="I42" s="26">
-        <f t="shared" si="17"/>
-        <v>3.9771374136699178E-2</v>
+        <f t="shared" si="20"/>
+        <v>-3.661044837515437E-2</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="37.5">
@@ -3894,11 +3904,11 @@
         <v>73</v>
       </c>
       <c r="C43" s="28">
-        <f>GETPIVOTDATA("Итого",$J$1,"transaction rq",F43)*3</f>
+        <f t="shared" si="18"/>
         <v>70.588235294117652</v>
       </c>
       <c r="D43" s="50">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>-3.4166666666666679E-2</v>
       </c>
       <c r="E43" s="52"/>
@@ -3907,16 +3917,16 @@
         <v>delete_booking</v>
       </c>
       <c r="G43" s="57">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>23.529411764705884</v>
       </c>
-      <c r="H43" s="49" t="e">
+      <c r="H43" s="49">
         <f>VLOOKUP(F43,SummaryReport!A:J,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I43" s="26" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
+        <v>21</v>
+      </c>
+      <c r="I43" s="26">
+        <f t="shared" si="20"/>
+        <v>-0.1204481792717087</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="37.5">
@@ -3927,11 +3937,11 @@
         <v>326</v>
       </c>
       <c r="C44" s="28">
-        <f>GETPIVOTDATA("Итого",$J$1,"transaction rq",F44)*3</f>
+        <f t="shared" si="18"/>
         <v>343.81900452488691</v>
       </c>
       <c r="D44" s="50">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>5.1826700357970212E-2</v>
       </c>
       <c r="E44" s="52"/>
@@ -3940,16 +3950,16 @@
         <v>logout</v>
       </c>
       <c r="G44" s="57">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>114.60633484162896</v>
       </c>
-      <c r="H44" s="49" t="e">
+      <c r="H44" s="49">
         <f>VLOOKUP(F44,SummaryReport!A:J,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I44" s="26" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
+        <v>109</v>
+      </c>
+      <c r="I44" s="26">
+        <f t="shared" si="20"/>
+        <v>-5.1434264602100654E-2</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="56.25">
@@ -3960,11 +3970,11 @@
         <v>97</v>
       </c>
       <c r="C45" s="28">
-        <f>GETPIVOTDATA("Итого",$J$1,"transaction rq",F45)*3</f>
+        <f t="shared" si="18"/>
         <v>92.307692307692307</v>
       </c>
       <c r="D45" s="50">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>-5.0833333333333286E-2</v>
       </c>
       <c r="E45" s="52"/>
@@ -3973,13 +3983,16 @@
         <v>click_sign_up_now</v>
       </c>
       <c r="G45" s="57">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>30.76923076923077</v>
       </c>
-      <c r="H45" s="49"/>
-      <c r="I45" s="26" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
+      <c r="H45" s="49">
+        <f>VLOOKUP(F45,SummaryReport!A:J,8,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="I45" s="26">
+        <f t="shared" si="20"/>
+        <v>-2.5641025641025772E-2</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="37.5">
@@ -3990,11 +4003,11 @@
         <v>97</v>
       </c>
       <c r="C46" s="28">
-        <f>GETPIVOTDATA("Итого",$J$1,"transaction rq",F46)*3</f>
+        <f t="shared" si="18"/>
         <v>92.307692307692307</v>
       </c>
       <c r="D46" s="50">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>-5.0833333333333286E-2</v>
       </c>
       <c r="E46" s="52"/>
@@ -4003,13 +4016,16 @@
         <v>data_usr</v>
       </c>
       <c r="G46" s="57">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>30.76923076923077</v>
       </c>
-      <c r="H46" s="49"/>
-      <c r="I46" s="26" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
+      <c r="H46" s="49">
+        <f>VLOOKUP(F46,SummaryReport!A:J,8,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="I46" s="26">
+        <f t="shared" si="20"/>
+        <v>-2.5641025641025772E-2</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="75">
@@ -4020,11 +4036,11 @@
         <v>97</v>
       </c>
       <c r="C47" s="28">
-        <f>GETPIVOTDATA("Итого",$J$1,"transaction rq",F47)*3</f>
+        <f t="shared" si="18"/>
         <v>92.307692307692307</v>
       </c>
       <c r="D47" s="50">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>-5.0833333333333286E-2</v>
       </c>
       <c r="E47" s="52"/>
@@ -4033,13 +4049,16 @@
         <v>welcome_new_usr</v>
       </c>
       <c r="G47" s="57">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>30.76923076923077</v>
       </c>
-      <c r="H47" s="49"/>
-      <c r="I47" s="26" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
+      <c r="H47" s="49">
+        <f>VLOOKUP(F47,SummaryReport!A:J,8,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="I47" s="26">
+        <f t="shared" si="20"/>
+        <v>-2.5641025641025772E-2</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="19.5" thickBot="1">
@@ -4055,7 +4074,7 @@
         <v>2908.0180995475121</v>
       </c>
       <c r="D48" s="25">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>-1.2373341300071949E-2</v>
       </c>
     </row>
@@ -4074,7 +4093,7 @@
     </row>
     <row r="51" spans="1:9">
       <c r="B51" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="C51" t="s">
         <v>73</v>
@@ -4092,7 +4111,7 @@
         <v>72</v>
       </c>
       <c r="H51" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -4142,7 +4161,7 @@
         <v>25</v>
       </c>
       <c r="D53" s="33">
-        <f t="shared" ref="D53:D56" si="21">60/C53</f>
+        <f t="shared" ref="D53:D56" si="24">60/C53</f>
         <v>2.4</v>
       </c>
       <c r="E53" s="48">
@@ -4153,11 +4172,11 @@
         <v>1.0416666666666667</v>
       </c>
       <c r="G53" s="20">
-        <f t="shared" ref="G53:G56" si="22">ROUND(F53,0)</f>
+        <f t="shared" ref="G53:G56" si="25">ROUND(F53,0)</f>
         <v>1</v>
       </c>
       <c r="H53" s="20">
-        <f t="shared" ref="H53:H56" si="23">G53*D53*E53</f>
+        <f t="shared" ref="H53:H56" si="26">G53*D53*E53</f>
         <v>48</v>
       </c>
       <c r="I53" s="31">
@@ -4177,7 +4196,7 @@
         <v>115</v>
       </c>
       <c r="D54" s="33">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0.52173913043478259</v>
       </c>
       <c r="E54" s="48">
@@ -4191,7 +4210,7 @@
         <v>1</v>
       </c>
       <c r="H54" s="20">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>10.434782608695652</v>
       </c>
       <c r="I54" s="31">
@@ -4211,7 +4230,7 @@
         <v>180</v>
       </c>
       <c r="D55" s="33">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="E55" s="48">
@@ -4225,7 +4244,7 @@
         <v>1</v>
       </c>
       <c r="H55" s="20">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>6.6666666666666661</v>
       </c>
       <c r="I55" s="31">
@@ -4245,7 +4264,7 @@
         <v>30</v>
       </c>
       <c r="D56" s="33">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>2</v>
       </c>
       <c r="E56" s="48">
@@ -4256,11 +4275,11 @@
         <v>1</v>
       </c>
       <c r="G56" s="20">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="H56" s="20">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>40</v>
       </c>
       <c r="I56" s="31">
@@ -4329,7 +4348,7 @@
         <v>Переход на страницу поиска билетов</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4338,7 +4357,7 @@
         <v xml:space="preserve">Заполнение полей для поиска билета </v>
       </c>
       <c r="B5" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4347,7 +4366,7 @@
         <v xml:space="preserve">Выбор рейса из найденных </v>
       </c>
       <c r="B6" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4356,7 +4375,7 @@
         <v>Оплата билета</v>
       </c>
       <c r="B7" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4365,7 +4384,7 @@
         <v>Просмотр квитанций</v>
       </c>
       <c r="B8" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4374,7 +4393,7 @@
         <v xml:space="preserve">Отмена бронирования </v>
       </c>
       <c r="B9" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4392,7 +4411,7 @@
         <v>Перход на страницу регистрации</v>
       </c>
       <c r="B11" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4401,7 +4420,7 @@
         <v>Заполнение полей регистарции</v>
       </c>
       <c r="B12" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4410,7 +4429,7 @@
         <v>Переход на следуюущий эран после регистарции</v>
       </c>
       <c r="B13" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -4420,10 +4439,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4464,578 +4483,546 @@
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" t="s">
+      <c r="A2" s="74" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="74" t="s">
         <v>87</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="74">
+        <v>0</v>
+      </c>
+      <c r="D2" s="74">
+        <v>0</v>
+      </c>
+      <c r="E2" s="74">
+        <v>6.2880000000000003</v>
+      </c>
+      <c r="F2" s="74">
+        <v>1.39</v>
+      </c>
+      <c r="G2" s="74">
+        <v>2.2109999999999999</v>
+      </c>
+      <c r="H2" s="74">
+        <v>12</v>
+      </c>
+      <c r="I2" s="74">
+        <v>0</v>
+      </c>
+      <c r="J2" s="74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="74" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" s="74" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="74">
+        <v>0</v>
+      </c>
+      <c r="D3" s="74">
+        <v>0</v>
+      </c>
+      <c r="E3" s="74">
+        <v>2.0249999999999999</v>
+      </c>
+      <c r="F3" s="74">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="G3" s="74">
+        <v>1.0149999999999999</v>
+      </c>
+      <c r="H3" s="74">
+        <v>47</v>
+      </c>
+      <c r="I3" s="74">
+        <v>0</v>
+      </c>
+      <c r="J3" s="74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="74" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" s="74" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="74">
+        <v>0</v>
+      </c>
+      <c r="D4" s="74">
+        <v>0</v>
+      </c>
+      <c r="E4" s="74">
+        <v>7.1130000000000004</v>
+      </c>
+      <c r="F4" s="74">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="G4" s="74">
+        <v>2.1890000000000001</v>
+      </c>
+      <c r="H4" s="74">
+        <v>53</v>
+      </c>
+      <c r="I4" s="74">
+        <v>0</v>
+      </c>
+      <c r="J4" s="74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="74" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" s="74" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="74">
+        <v>0</v>
+      </c>
+      <c r="D5" s="74">
+        <v>0</v>
+      </c>
+      <c r="E5" s="74">
+        <v>6.1189999999999998</v>
+      </c>
+      <c r="F5" s="74">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="G5" s="74">
+        <v>3.1909999999999998</v>
+      </c>
+      <c r="H5" s="74">
+        <v>29</v>
+      </c>
+      <c r="I5" s="74">
+        <v>0</v>
+      </c>
+      <c r="J5" s="74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="74" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" s="74" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="74">
+        <v>0</v>
+      </c>
+      <c r="D6" s="74">
+        <v>0</v>
+      </c>
+      <c r="E6" s="74">
+        <v>3.42</v>
+      </c>
+      <c r="F6" s="74">
+        <v>0.65</v>
+      </c>
+      <c r="G6" s="74">
+        <v>1.956</v>
+      </c>
+      <c r="H6" s="74">
+        <v>21</v>
+      </c>
+      <c r="I6" s="74">
+        <v>2</v>
+      </c>
+      <c r="J6" s="74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="74" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" s="74" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="74">
+        <v>0</v>
+      </c>
+      <c r="D7" s="74">
+        <v>0</v>
+      </c>
+      <c r="E7" s="74">
+        <v>1.024</v>
+      </c>
+      <c r="F7" s="74">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="G7" s="74">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="H7" s="74">
+        <v>53</v>
+      </c>
+      <c r="I7" s="74">
+        <v>0</v>
+      </c>
+      <c r="J7" s="74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="74" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" s="74" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="74">
+        <v>0</v>
+      </c>
+      <c r="D8" s="74">
+        <v>0</v>
+      </c>
+      <c r="E8" s="74">
+        <v>0.318</v>
+      </c>
+      <c r="F8" s="74">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="G8" s="74">
+        <v>0.153</v>
+      </c>
+      <c r="H8" s="74">
+        <v>82</v>
+      </c>
+      <c r="I8" s="74">
+        <v>0</v>
+      </c>
+      <c r="J8" s="74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="74" t="s">
         <v>88</v>
       </c>
-      <c r="C2">
-        <v>0.106</v>
-      </c>
-      <c r="D2">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="E2">
-        <v>0.51</v>
-      </c>
-      <c r="F2">
-        <v>0.05</v>
-      </c>
-      <c r="G2">
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="H2">
-        <v>92</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
+      <c r="B9" s="74" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="74">
+        <v>0</v>
+      </c>
+      <c r="D9" s="74">
+        <v>0</v>
+      </c>
+      <c r="E9" s="74">
+        <v>1.39</v>
+      </c>
+      <c r="F9" s="74">
+        <v>0.184</v>
+      </c>
+      <c r="G9" s="74">
+        <v>0.46800000000000003</v>
+      </c>
+      <c r="H9" s="74">
+        <v>97</v>
+      </c>
+      <c r="I9" s="74">
+        <v>0</v>
+      </c>
+      <c r="J9" s="74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="74" t="s">
+        <v>96</v>
+      </c>
+      <c r="B10" s="74" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="74">
+        <v>0</v>
+      </c>
+      <c r="D10" s="74">
+        <v>0</v>
+      </c>
+      <c r="E10" s="74">
+        <v>2.0369999999999999</v>
+      </c>
+      <c r="F10" s="74">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="G10" s="74">
+        <v>0.371</v>
+      </c>
+      <c r="H10" s="74">
+        <v>88</v>
+      </c>
+      <c r="I10" s="74">
+        <v>0</v>
+      </c>
+      <c r="J10" s="74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="74" t="s">
         <v>89</v>
       </c>
-      <c r="B3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C3">
-        <v>0.24299999999999999</v>
-      </c>
-      <c r="D3">
-        <v>0.54</v>
-      </c>
-      <c r="E3">
-        <v>14.148</v>
-      </c>
-      <c r="F3">
-        <v>1.3879999999999999</v>
-      </c>
-      <c r="G3">
-        <v>0.58399999999999996</v>
-      </c>
-      <c r="H3">
-        <v>106</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C4">
-        <v>0.24299999999999999</v>
-      </c>
-      <c r="D4">
-        <v>0.42599999999999999</v>
-      </c>
-      <c r="E4">
-        <v>2.2069999999999999</v>
-      </c>
-      <c r="F4">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="G4">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="H4">
+      <c r="B11" s="74" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="74">
+        <v>0</v>
+      </c>
+      <c r="D11" s="74">
+        <v>0</v>
+      </c>
+      <c r="E11" s="74">
+        <v>3.1219999999999999</v>
+      </c>
+      <c r="F11" s="74">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="G11" s="74">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="H11" s="74">
+        <v>30</v>
+      </c>
+      <c r="I11" s="74">
+        <v>0</v>
+      </c>
+      <c r="J11" s="74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="74" t="s">
+        <v>98</v>
+      </c>
+      <c r="B12" s="74" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" s="74">
+        <v>0</v>
+      </c>
+      <c r="D12" s="74">
+        <v>0</v>
+      </c>
+      <c r="E12" s="74">
+        <v>0.187</v>
+      </c>
+      <c r="F12" s="74">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G12" s="74">
+        <v>0.113</v>
+      </c>
+      <c r="H12" s="74">
+        <v>30</v>
+      </c>
+      <c r="I12" s="74">
+        <v>0</v>
+      </c>
+      <c r="J12" s="74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="74" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" s="74" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" s="74">
+        <v>0</v>
+      </c>
+      <c r="D13" s="74">
+        <v>0</v>
+      </c>
+      <c r="E13" s="74">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="F13" s="74">
+        <v>2.4E-2</v>
+      </c>
+      <c r="G13" s="74">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="H13" s="74">
+        <v>21</v>
+      </c>
+      <c r="I13" s="74">
+        <v>2</v>
+      </c>
+      <c r="J13" s="74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="74" t="s">
+        <v>93</v>
+      </c>
+      <c r="B14" s="74" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="74">
+        <v>0</v>
+      </c>
+      <c r="D14" s="74">
+        <v>0</v>
+      </c>
+      <c r="E14" s="74">
+        <v>0.45300000000000001</v>
+      </c>
+      <c r="F14" s="74">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="G14" s="74">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="H14" s="74">
         <v>95</v>
       </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C5">
-        <v>0.16600000000000001</v>
-      </c>
-      <c r="D5">
-        <v>0.27</v>
-      </c>
-      <c r="E5">
-        <v>2.63</v>
-      </c>
-      <c r="F5">
-        <v>0.29699999999999999</v>
-      </c>
-      <c r="G5">
-        <v>0.34499999999999997</v>
-      </c>
-      <c r="H5">
-        <v>105</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" t="s">
-        <v>92</v>
-      </c>
-      <c r="B6" t="s">
-        <v>88</v>
-      </c>
-      <c r="C6">
-        <v>9.2999999999999999E-2</v>
-      </c>
-      <c r="D6">
-        <v>0.14699999999999999</v>
-      </c>
-      <c r="E6">
-        <v>0.50600000000000001</v>
-      </c>
-      <c r="F6">
-        <v>7.6999999999999999E-2</v>
-      </c>
-      <c r="G6">
-        <v>0.19800000000000001</v>
-      </c>
-      <c r="H6">
-        <v>34</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" t="s">
-        <v>93</v>
-      </c>
-      <c r="B7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C7">
-        <v>9.2999999999999999E-2</v>
-      </c>
-      <c r="D7">
-        <v>0.13800000000000001</v>
-      </c>
-      <c r="E7">
-        <v>0.45400000000000001</v>
-      </c>
-      <c r="F7">
-        <v>8.2000000000000003E-2</v>
-      </c>
-      <c r="G7">
-        <v>0.186</v>
-      </c>
-      <c r="H7">
-        <v>34</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" t="s">
-        <v>94</v>
-      </c>
-      <c r="B8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C8">
-        <v>0.115</v>
-      </c>
-      <c r="D8">
-        <v>0.161</v>
-      </c>
-      <c r="E8">
-        <v>0.41399999999999998</v>
-      </c>
-      <c r="F8">
-        <v>6.6000000000000003E-2</v>
-      </c>
-      <c r="G8">
-        <v>0.223</v>
-      </c>
-      <c r="H8">
-        <v>25</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" t="s">
-        <v>95</v>
-      </c>
-      <c r="B9" t="s">
-        <v>88</v>
-      </c>
-      <c r="C9">
-        <v>0.114</v>
-      </c>
-      <c r="D9">
-        <v>0.20699999999999999</v>
-      </c>
-      <c r="E9">
-        <v>2.64</v>
-      </c>
-      <c r="F9">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="G9">
-        <v>0.26300000000000001</v>
-      </c>
-      <c r="H9">
-        <v>57</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" t="s">
-        <v>96</v>
-      </c>
-      <c r="B10" t="s">
-        <v>88</v>
-      </c>
-      <c r="C10">
-        <v>0.104</v>
-      </c>
-      <c r="D10">
-        <v>0.189</v>
-      </c>
-      <c r="E10">
-        <v>2.1070000000000002</v>
-      </c>
-      <c r="F10">
-        <v>0.25600000000000001</v>
-      </c>
-      <c r="G10">
-        <v>0.184</v>
-      </c>
-      <c r="H10">
-        <v>92</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" t="s">
+      <c r="I14" s="74">
+        <v>0</v>
+      </c>
+      <c r="J14" s="74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="B11" t="s">
-        <v>88</v>
-      </c>
-      <c r="C11">
-        <v>0.224</v>
-      </c>
-      <c r="D11">
-        <v>0.48299999999999998</v>
-      </c>
-      <c r="E11">
-        <v>8.968</v>
-      </c>
-      <c r="F11">
-        <v>0.83099999999999996</v>
-      </c>
-      <c r="G11">
-        <v>0.67900000000000005</v>
-      </c>
-      <c r="H11">
-        <v>144</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" t="s">
+      <c r="B15" s="74" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" s="74">
+        <v>0</v>
+      </c>
+      <c r="D15" s="74">
+        <v>0</v>
+      </c>
+      <c r="E15" s="74">
+        <v>1.2130000000000001</v>
+      </c>
+      <c r="F15" s="74">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="G15" s="74">
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="H15" s="74">
+        <v>137</v>
+      </c>
+      <c r="I15" s="74">
+        <v>0</v>
+      </c>
+      <c r="J15" s="74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="74" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="74">
+        <v>0</v>
+      </c>
+      <c r="D16" s="74">
+        <v>0</v>
+      </c>
+      <c r="E16" s="74">
+        <v>1.327</v>
+      </c>
+      <c r="F16" s="74">
+        <v>0.113</v>
+      </c>
+      <c r="G16" s="74">
+        <v>0.246</v>
+      </c>
+      <c r="H16" s="74">
+        <v>109</v>
+      </c>
+      <c r="I16" s="74">
+        <v>0</v>
+      </c>
+      <c r="J16" s="74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="74" t="s">
         <v>80</v>
       </c>
-      <c r="B12" t="s">
-        <v>88</v>
-      </c>
-      <c r="C12">
-        <v>0.19900000000000001</v>
-      </c>
-      <c r="D12">
-        <v>0.65200000000000002</v>
-      </c>
-      <c r="E12">
-        <v>11.465</v>
-      </c>
-      <c r="F12">
-        <v>1.899</v>
-      </c>
-      <c r="G12">
-        <v>0.504</v>
-      </c>
-      <c r="H12">
-        <v>34</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" t="s">
-        <v>97</v>
-      </c>
-      <c r="B13" t="s">
-        <v>88</v>
-      </c>
-      <c r="C13">
-        <v>0.152</v>
-      </c>
-      <c r="D13">
-        <v>0.255</v>
-      </c>
-      <c r="E13">
-        <v>2.6960000000000002</v>
-      </c>
-      <c r="F13">
-        <v>0.20499999999999999</v>
-      </c>
-      <c r="G13">
-        <v>0.34399999999999997</v>
-      </c>
-      <c r="H13">
-        <v>178</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" t="s">
-        <v>98</v>
-      </c>
-      <c r="B14" t="s">
-        <v>88</v>
-      </c>
-      <c r="C14">
-        <v>0.77800000000000002</v>
-      </c>
-      <c r="D14">
-        <v>1.446</v>
-      </c>
-      <c r="E14">
-        <v>13.048999999999999</v>
-      </c>
-      <c r="F14">
-        <v>2.1110000000000002</v>
-      </c>
-      <c r="G14">
-        <v>1.623</v>
-      </c>
-      <c r="H14">
-        <v>33</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" t="s">
+      <c r="B17" s="74" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" s="74">
+        <v>0</v>
+      </c>
+      <c r="D17" s="74">
+        <v>0</v>
+      </c>
+      <c r="E17" s="74">
+        <v>4.2670000000000003</v>
+      </c>
+      <c r="F17" s="74">
+        <v>0.49399999999999999</v>
+      </c>
+      <c r="G17" s="74">
+        <v>0.36099999999999999</v>
+      </c>
+      <c r="H17" s="74">
+        <v>168</v>
+      </c>
+      <c r="I17" s="74">
+        <v>0</v>
+      </c>
+      <c r="J17" s="74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="74" t="s">
         <v>99</v>
       </c>
-      <c r="B15" t="s">
-        <v>88</v>
-      </c>
-      <c r="C15">
-        <v>1.44</v>
-      </c>
-      <c r="D15">
-        <v>2.3420000000000001</v>
-      </c>
-      <c r="E15">
-        <v>19.016999999999999</v>
-      </c>
-      <c r="F15">
-        <v>2.7629999999999999</v>
-      </c>
-      <c r="G15">
-        <v>4.1509999999999998</v>
-      </c>
-      <c r="H15">
-        <v>45</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" t="s">
-        <v>100</v>
-      </c>
-      <c r="B16" t="s">
-        <v>88</v>
-      </c>
-      <c r="C16">
-        <v>0.69399999999999995</v>
-      </c>
-      <c r="D16">
-        <v>1.014</v>
-      </c>
-      <c r="E16">
-        <v>2.077</v>
-      </c>
-      <c r="F16">
-        <v>0.36599999999999999</v>
-      </c>
-      <c r="G16">
-        <v>1.637</v>
-      </c>
-      <c r="H16">
-        <v>24</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" t="s">
-        <v>101</v>
-      </c>
-      <c r="B17" t="s">
-        <v>88</v>
-      </c>
-      <c r="C17">
-        <v>0.98599999999999999</v>
-      </c>
-      <c r="D17">
-        <v>1.61</v>
-      </c>
-      <c r="E17">
-        <v>6.6539999999999999</v>
-      </c>
-      <c r="F17">
-        <v>1.294</v>
-      </c>
-      <c r="G17">
-        <v>1.9570000000000001</v>
-      </c>
-      <c r="H17">
-        <v>25</v>
-      </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" t="s">
-        <v>102</v>
-      </c>
-      <c r="B18" t="s">
-        <v>88</v>
-      </c>
-      <c r="C18">
-        <v>1.109</v>
-      </c>
-      <c r="D18">
-        <v>1.9690000000000001</v>
-      </c>
-      <c r="E18">
-        <v>14.016999999999999</v>
-      </c>
-      <c r="F18">
-        <v>2.3239999999999998</v>
-      </c>
-      <c r="G18">
-        <v>3.5369999999999999</v>
-      </c>
-      <c r="H18">
-        <v>35</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" t="s">
-        <v>103</v>
-      </c>
-      <c r="B19" t="s">
-        <v>88</v>
-      </c>
-      <c r="C19">
-        <v>1.56</v>
-      </c>
-      <c r="D19">
-        <v>2.4740000000000002</v>
-      </c>
-      <c r="E19">
-        <v>7.1920000000000002</v>
-      </c>
-      <c r="F19">
-        <v>1.5089999999999999</v>
-      </c>
-      <c r="G19">
-        <v>3.153</v>
-      </c>
-      <c r="H19">
-        <v>12</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
+      <c r="B18" s="74" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" s="74">
+        <v>0</v>
+      </c>
+      <c r="D18" s="74">
+        <v>0</v>
+      </c>
+      <c r="E18" s="74">
+        <v>0.66800000000000004</v>
+      </c>
+      <c r="F18" s="74">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="G18" s="74">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="H18" s="74">
+        <v>30</v>
+      </c>
+      <c r="I18" s="74">
+        <v>0</v>
+      </c>
+      <c r="J18" s="74">
         <v>0</v>
       </c>
     </row>
@@ -5071,13 +5058,13 @@
   </cols>
   <sheetData>
     <row r="9" spans="5:9">
-      <c r="E9" s="69" t="s">
+      <c r="E9" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="69"/>
-      <c r="G9" s="69"/>
-      <c r="H9" s="69"/>
-      <c r="I9" s="69"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="77"/>
+      <c r="H9" s="77"/>
+      <c r="I9" s="77"/>
     </row>
     <row r="11" spans="5:9" ht="28.5">
       <c r="E11" s="1" t="s">
@@ -5230,13 +5217,13 @@
       </c>
     </row>
     <row r="23" spans="5:9">
-      <c r="E23" s="69" t="s">
+      <c r="E23" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="F23" s="69"/>
-      <c r="G23" s="69"/>
-      <c r="H23" s="69"/>
-      <c r="I23" s="69"/>
+      <c r="F23" s="77"/>
+      <c r="G23" s="77"/>
+      <c r="H23" s="77"/>
+      <c r="I23" s="77"/>
     </row>
     <row r="25" spans="5:9">
       <c r="E25" s="8" t="s">
@@ -5396,13 +5383,13 @@
       </c>
     </row>
     <row r="35" spans="5:15">
-      <c r="E35" s="69" t="s">
+      <c r="E35" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="F35" s="69"/>
-      <c r="G35" s="69"/>
-      <c r="H35" s="69"/>
-      <c r="I35" s="69"/>
+      <c r="F35" s="77"/>
+      <c r="G35" s="77"/>
+      <c r="H35" s="77"/>
+      <c r="I35" s="77"/>
     </row>
     <row r="37" spans="5:15">
       <c r="E37" s="8" t="s">

--- a/Документация/WebTours Профиль нагрузки_Журавлев.xlsx
+++ b/Документация/WebTours Профиль нагрузки_Журавлев.xlsx
@@ -14,7 +14,7 @@
   </sheets>
   <calcPr calcId="125725"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -2015,7 +2015,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="3" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="3" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="J1:K14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
@@ -2374,7 +2374,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2384,8 +2384,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V12" sqref="V12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -2543,6 +2543,10 @@
         <f>SUM(R2:R8)</f>
         <v>10</v>
       </c>
+      <c r="X2">
+        <f>R2*3.6</f>
+        <v>7.2</v>
+      </c>
     </row>
     <row r="3" spans="1:24">
       <c r="A3" s="60" t="s">
@@ -2613,6 +2617,10 @@
         <f>R3/W$2</f>
         <v>0.2</v>
       </c>
+      <c r="X3">
+        <f t="shared" ref="X3:X6" si="3">R3*3.6</f>
+        <v>7.2</v>
+      </c>
     </row>
     <row r="4" spans="1:24">
       <c r="A4" s="60" t="s">
@@ -2633,14 +2641,14 @@
         <v>78</v>
       </c>
       <c r="F4" s="21">
-        <f t="shared" ref="F4:F30" si="3">60/E4*C4</f>
+        <f t="shared" ref="F4:F30" si="4">60/E4*C4</f>
         <v>0.76923076923076927</v>
       </c>
       <c r="G4">
         <v>20</v>
       </c>
       <c r="H4" s="20">
-        <f t="shared" ref="H4:H30" si="4">D4*F4*G4</f>
+        <f t="shared" ref="H4:H30" si="5">D4*F4*G4</f>
         <v>30.76923076923077</v>
       </c>
       <c r="J4" s="17" t="s">
@@ -2680,8 +2688,12 @@
         <v>55</v>
       </c>
       <c r="V4" s="36">
-        <f t="shared" ref="V4:V5" si="5">R4/W$2</f>
+        <f t="shared" ref="V4:V5" si="6">R4/W$2</f>
         <v>0.3</v>
+      </c>
+      <c r="X4">
+        <f t="shared" si="3"/>
+        <v>10.8</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -2703,14 +2715,14 @@
         <v>78</v>
       </c>
       <c r="F5" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.76923076923076927</v>
       </c>
       <c r="G5">
         <v>20</v>
       </c>
       <c r="H5" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>30.76923076923077</v>
       </c>
       <c r="J5" s="17" t="s">
@@ -2750,8 +2762,12 @@
         <v>31</v>
       </c>
       <c r="V5" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.2</v>
+      </c>
+      <c r="X5">
+        <f t="shared" si="3"/>
+        <v>7.2</v>
       </c>
     </row>
     <row r="6" spans="1:24">
@@ -2765,22 +2781,22 @@
         <v>1</v>
       </c>
       <c r="D6" s="63">
-        <f t="shared" ref="D6:D8" si="6">VLOOKUP(A6,$M$1:$W$11,6,FALSE)</f>
+        <f t="shared" ref="D6:D8" si="7">VLOOKUP(A6,$M$1:$W$11,6,FALSE)</f>
         <v>2</v>
       </c>
       <c r="E6">
-        <f t="shared" ref="E6:E8" si="7">VLOOKUP(A6,$M$1:$W$11,5,FALSE)</f>
+        <f t="shared" ref="E6:E8" si="8">VLOOKUP(A6,$M$1:$W$11,5,FALSE)</f>
         <v>78</v>
       </c>
       <c r="F6" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.76923076923076927</v>
       </c>
       <c r="G6">
         <v>20</v>
       </c>
       <c r="H6" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>30.76923076923077</v>
       </c>
       <c r="J6" s="17" t="s">
@@ -2823,6 +2839,10 @@
         <f>R6/W$2</f>
         <v>0.1</v>
       </c>
+      <c r="X6">
+        <f t="shared" si="3"/>
+        <v>3.6</v>
+      </c>
     </row>
     <row r="7" spans="1:24">
       <c r="A7" s="60" t="s">
@@ -2835,22 +2855,22 @@
         <v>1</v>
       </c>
       <c r="D7" s="63">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="E7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>78</v>
       </c>
       <c r="F7" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.76923076923076927</v>
       </c>
       <c r="G7">
         <v>20</v>
       </c>
       <c r="H7" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>30.76923076923077</v>
       </c>
       <c r="J7" s="17" t="s">
@@ -2881,22 +2901,22 @@
         <v>1</v>
       </c>
       <c r="D8" s="63">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="E8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>78</v>
       </c>
       <c r="F8" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.76923076923076927</v>
       </c>
       <c r="G8">
         <v>20</v>
       </c>
       <c r="H8" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>30.76923076923077</v>
       </c>
       <c r="J8" s="17" t="s">
@@ -2927,22 +2947,22 @@
         <v>1</v>
       </c>
       <c r="D9" s="64">
-        <f t="shared" ref="D9:D30" si="8">VLOOKUP(A9,$M$1:$W$11,6,FALSE)</f>
+        <f t="shared" ref="D9:D30" si="9">VLOOKUP(A9,$M$1:$W$11,6,FALSE)</f>
         <v>2</v>
       </c>
       <c r="E9">
-        <f t="shared" ref="E9:E30" si="9">VLOOKUP(A9,$M$1:$W$11,5,FALSE)</f>
+        <f t="shared" ref="E9:E30" si="10">VLOOKUP(A9,$M$1:$W$11,5,FALSE)</f>
         <v>78</v>
       </c>
       <c r="F9" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.76923076923076927</v>
       </c>
       <c r="G9">
         <v>20</v>
       </c>
       <c r="H9" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>30.76923076923077</v>
       </c>
       <c r="J9" s="17" t="s">
@@ -2963,22 +2983,22 @@
         <v>1</v>
       </c>
       <c r="D10" s="62">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>51</v>
       </c>
       <c r="F10" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.1764705882352942</v>
       </c>
       <c r="G10">
         <v>20</v>
       </c>
       <c r="H10" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>23.529411764705884</v>
       </c>
       <c r="J10" s="17" t="s">
@@ -3008,22 +3028,22 @@
         <v>1</v>
       </c>
       <c r="D11" s="63">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E11" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>51</v>
       </c>
       <c r="F11" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.1764705882352942</v>
       </c>
       <c r="G11">
         <v>20</v>
       </c>
       <c r="H11" s="20">
-        <f t="shared" ref="H11" si="10">D11*F11*G11</f>
+        <f t="shared" ref="H11" si="11">D11*F11*G11</f>
         <v>23.529411764705884</v>
       </c>
       <c r="J11" s="17" t="s">
@@ -3044,22 +3064,22 @@
         <v>1</v>
       </c>
       <c r="D12" s="63">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E12" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>51</v>
       </c>
       <c r="F12" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.1764705882352942</v>
       </c>
       <c r="G12">
         <v>20</v>
       </c>
       <c r="H12" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>23.529411764705884</v>
       </c>
       <c r="J12" s="17" t="s">
@@ -3080,22 +3100,22 @@
         <v>1</v>
       </c>
       <c r="D13" s="63">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E13" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>51</v>
       </c>
       <c r="F13" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.1764705882352942</v>
       </c>
       <c r="G13">
         <v>20</v>
       </c>
       <c r="H13" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>23.529411764705884</v>
       </c>
       <c r="J13" s="17" t="s">
@@ -3116,22 +3136,22 @@
         <v>1</v>
       </c>
       <c r="D14" s="64">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E14" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>51</v>
       </c>
       <c r="F14" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.1764705882352942</v>
       </c>
       <c r="G14">
         <v>20</v>
       </c>
       <c r="H14" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>23.529411764705884</v>
       </c>
       <c r="J14" s="17" t="s">
@@ -3152,22 +3172,22 @@
         <v>1</v>
       </c>
       <c r="D15" s="62">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="E15" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>65</v>
       </c>
       <c r="F15" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.92307692307692313</v>
       </c>
       <c r="G15">
         <v>20</v>
       </c>
       <c r="H15" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>55.384615384615387</v>
       </c>
     </row>
@@ -3182,22 +3202,22 @@
         <v>1</v>
       </c>
       <c r="D16" s="63">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="E16" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>65</v>
       </c>
       <c r="F16" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.92307692307692313</v>
       </c>
       <c r="G16">
         <v>20</v>
       </c>
       <c r="H16" s="20">
-        <f t="shared" ref="H16" si="11">D16*F16*G16</f>
+        <f t="shared" ref="H16" si="12">D16*F16*G16</f>
         <v>55.384615384615387</v>
       </c>
     </row>
@@ -3212,22 +3232,22 @@
         <v>1</v>
       </c>
       <c r="D17" s="63">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="E17" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>65</v>
       </c>
       <c r="F17" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.92307692307692313</v>
       </c>
       <c r="G17">
         <v>20</v>
       </c>
       <c r="H17" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>55.384615384615387</v>
       </c>
     </row>
@@ -3242,22 +3262,22 @@
         <v>1</v>
       </c>
       <c r="D18" s="63">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="E18" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>65</v>
       </c>
       <c r="F18" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.92307692307692313</v>
       </c>
       <c r="G18">
         <v>20</v>
       </c>
       <c r="H18" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>55.384615384615387</v>
       </c>
     </row>
@@ -3272,22 +3292,22 @@
         <v>1</v>
       </c>
       <c r="D19" s="63">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="E19" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>65</v>
       </c>
       <c r="F19" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.92307692307692313</v>
       </c>
       <c r="G19">
         <v>20</v>
       </c>
       <c r="H19" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>55.384615384615387</v>
       </c>
     </row>
@@ -3302,15 +3322,15 @@
         <v>1</v>
       </c>
       <c r="D20" s="63">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="E20" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>65</v>
       </c>
       <c r="F20" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.92307692307692313</v>
       </c>
       <c r="G20">
@@ -3332,22 +3352,22 @@
         <v>1</v>
       </c>
       <c r="D21" s="63">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="E21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>65</v>
       </c>
       <c r="F21" s="21">
-        <f t="shared" ref="F21:F25" si="12">60/E21*C21</f>
+        <f t="shared" ref="F21:F25" si="13">60/E21*C21</f>
         <v>0.92307692307692313</v>
       </c>
       <c r="G21">
         <v>20</v>
       </c>
       <c r="H21" s="20">
-        <f t="shared" ref="H21:H25" si="13">D21*F21*G21</f>
+        <f t="shared" ref="H21:H25" si="14">D21*F21*G21</f>
         <v>55.384615384615387</v>
       </c>
     </row>
@@ -3362,22 +3382,22 @@
         <v>1</v>
       </c>
       <c r="D22" s="62">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="E22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>195</v>
       </c>
       <c r="F22" s="21">
-        <f t="shared" ref="F22" si="14">60/E22*C22</f>
+        <f t="shared" ref="F22" si="15">60/E22*C22</f>
         <v>0.30769230769230771</v>
       </c>
       <c r="G22">
         <v>20</v>
       </c>
       <c r="H22" s="20">
-        <f t="shared" ref="H22" si="15">D22*F22*G22</f>
+        <f t="shared" ref="H22" si="16">D22*F22*G22</f>
         <v>12.307692307692308</v>
       </c>
     </row>
@@ -3392,22 +3412,22 @@
         <v>1</v>
       </c>
       <c r="D23" s="63">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="E23">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>195</v>
       </c>
       <c r="F23" s="21">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.30769230769230771</v>
       </c>
       <c r="G23">
         <v>20</v>
       </c>
       <c r="H23" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>12.307692307692308</v>
       </c>
     </row>
@@ -3422,22 +3442,22 @@
         <v>1</v>
       </c>
       <c r="D24" s="63">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="E24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>195</v>
       </c>
       <c r="F24" s="21">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.30769230769230771</v>
       </c>
       <c r="G24">
         <v>20</v>
       </c>
       <c r="H24" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>12.307692307692308</v>
       </c>
     </row>
@@ -3452,22 +3472,22 @@
         <v>1</v>
       </c>
       <c r="D25" s="63">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="E25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>195</v>
       </c>
       <c r="F25" s="21">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.30769230769230771</v>
       </c>
       <c r="G25">
         <v>20</v>
       </c>
       <c r="H25" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>12.307692307692308</v>
       </c>
     </row>
@@ -3482,22 +3502,22 @@
         <v>1</v>
       </c>
       <c r="D26" s="63">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="E26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>195</v>
       </c>
       <c r="F26" s="21">
-        <f t="shared" ref="F26" si="16">60/E26*C26</f>
+        <f t="shared" ref="F26" si="17">60/E26*C26</f>
         <v>0.30769230769230771</v>
       </c>
       <c r="G26">
         <v>20</v>
       </c>
       <c r="H26" s="20">
-        <f t="shared" ref="H26" si="17">D26*F26*G26</f>
+        <f t="shared" ref="H26" si="18">D26*F26*G26</f>
         <v>12.307692307692308</v>
       </c>
     </row>
@@ -3512,22 +3532,22 @@
         <v>1</v>
       </c>
       <c r="D27" s="64">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="E27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>195</v>
       </c>
       <c r="F27" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.30769230769230771</v>
       </c>
       <c r="G27">
         <v>20</v>
       </c>
       <c r="H27" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>12.307692307692308</v>
       </c>
     </row>
@@ -3542,22 +3562,22 @@
         <v>1</v>
       </c>
       <c r="D28" s="62">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="E28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>50</v>
       </c>
       <c r="F28" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.2</v>
       </c>
       <c r="G28">
         <v>20</v>
       </c>
       <c r="H28" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>48</v>
       </c>
     </row>
@@ -3572,22 +3592,22 @@
         <v>1</v>
       </c>
       <c r="D29" s="63">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="E29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>50</v>
       </c>
       <c r="F29" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.2</v>
       </c>
       <c r="G29">
         <v>20</v>
       </c>
       <c r="H29" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>48</v>
       </c>
     </row>
@@ -3602,22 +3622,22 @@
         <v>1</v>
       </c>
       <c r="D30" s="64">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="E30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>50</v>
       </c>
       <c r="F30" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.2</v>
       </c>
       <c r="G30">
         <v>20</v>
       </c>
       <c r="H30" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>48</v>
       </c>
     </row>
@@ -3673,11 +3693,11 @@
         <v>520</v>
       </c>
       <c r="C36" s="28">
-        <f t="shared" ref="C36:C47" si="18">GETPIVOTDATA("Итого",$J$1,"transaction rq",F36)*3</f>
+        <f t="shared" ref="C36:C47" si="19">GETPIVOTDATA("Итого",$J$1,"transaction rq",F36)*3</f>
         <v>509.9728506787331</v>
       </c>
       <c r="D36" s="54">
-        <f t="shared" ref="D36:D37" si="19">1-B36/C36</f>
+        <f t="shared" ref="D36:D37" si="20">1-B36/C36</f>
         <v>-1.9662123793299235E-2</v>
       </c>
       <c r="E36" s="52"/>
@@ -3694,7 +3714,7 @@
         <v>168</v>
       </c>
       <c r="I36" s="26">
-        <f t="shared" ref="I36:I47" si="20">1-G36/H36</f>
+        <f t="shared" ref="I36:I47" si="21">1-G36/H36</f>
         <v>-1.185089420383556E-2</v>
       </c>
     </row>
@@ -3706,11 +3726,11 @@
         <v>422</v>
       </c>
       <c r="C37" s="28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>417.66515837104077</v>
       </c>
       <c r="D37" s="54">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-1.0378748483272471E-2</v>
       </c>
       <c r="E37" s="52"/>
@@ -3719,7 +3739,7 @@
         <v>login</v>
       </c>
       <c r="G37" s="57">
-        <f t="shared" ref="G37:G47" si="21">C37/3</f>
+        <f t="shared" ref="G37:G47" si="22">C37/3</f>
         <v>139.22171945701359</v>
       </c>
       <c r="H37" s="49">
@@ -3727,7 +3747,7 @@
         <v>137</v>
       </c>
       <c r="I37" s="26">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-1.6216930343164959E-2</v>
       </c>
     </row>
@@ -3739,11 +3759,11 @@
         <v>305</v>
       </c>
       <c r="C38" s="28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>295.38461538461542</v>
       </c>
       <c r="D38" s="54">
-        <f t="shared" ref="D38" si="22">1-B38/C38</f>
+        <f t="shared" ref="D38" si="23">1-B38/C38</f>
         <v>-3.2552083333333259E-2</v>
       </c>
       <c r="E38" s="52"/>
@@ -3752,7 +3772,7 @@
         <v>click_flights</v>
       </c>
       <c r="G38" s="57">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>98.461538461538467</v>
       </c>
       <c r="H38" s="49">
@@ -3760,7 +3780,7 @@
         <v>97</v>
       </c>
       <c r="I38" s="26">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-1.5067406819984086E-2</v>
       </c>
     </row>
@@ -3772,11 +3792,11 @@
         <v>282</v>
       </c>
       <c r="C39" s="28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>295.38461538461542</v>
       </c>
       <c r="D39" s="50">
-        <f t="shared" ref="D39:D48" si="23">1-B39/C39</f>
+        <f t="shared" ref="D39:D48" si="24">1-B39/C39</f>
         <v>4.5312500000000089E-2</v>
       </c>
       <c r="E39" s="52"/>
@@ -3785,7 +3805,7 @@
         <v>find_ticket</v>
       </c>
       <c r="G39" s="57">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>98.461538461538467</v>
       </c>
       <c r="H39" s="49">
@@ -3793,7 +3813,7 @@
         <v>95</v>
       </c>
       <c r="I39" s="26">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-3.6437246963562764E-2</v>
       </c>
     </row>
@@ -3805,11 +3825,11 @@
         <v>270</v>
       </c>
       <c r="C40" s="28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>258.46153846153845</v>
       </c>
       <c r="D40" s="50">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>-4.4642857142857206E-2</v>
       </c>
       <c r="E40" s="52"/>
@@ -3818,7 +3838,7 @@
         <v>choice_ticket</v>
       </c>
       <c r="G40" s="57">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>86.153846153846146</v>
       </c>
       <c r="H40" s="49">
@@ -3826,7 +3846,7 @@
         <v>82</v>
       </c>
       <c r="I40" s="26">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-5.0656660412757848E-2</v>
       </c>
     </row>
@@ -3838,11 +3858,11 @@
         <v>175</v>
       </c>
       <c r="C41" s="28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>166.15384615384616</v>
       </c>
       <c r="D41" s="50">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>-5.32407407407407E-2</v>
       </c>
       <c r="E41" s="52"/>
@@ -3851,7 +3871,7 @@
         <v>buy_ticket</v>
       </c>
       <c r="G41" s="57">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>55.384615384615387</v>
       </c>
       <c r="H41" s="49">
@@ -3859,7 +3879,7 @@
         <v>53</v>
       </c>
       <c r="I41" s="26">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-4.4992743105950694E-2</v>
       </c>
     </row>
@@ -3871,11 +3891,11 @@
         <v>280</v>
       </c>
       <c r="C42" s="28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>273.66515837104072</v>
       </c>
       <c r="D42" s="50">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>-2.314814814814814E-2</v>
       </c>
       <c r="E42" s="52"/>
@@ -3884,7 +3904,7 @@
         <v>click_Itinerary</v>
       </c>
       <c r="G42" s="57">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>91.221719457013577</v>
       </c>
       <c r="H42" s="49">
@@ -3892,7 +3912,7 @@
         <v>88</v>
       </c>
       <c r="I42" s="26">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-3.661044837515437E-2</v>
       </c>
     </row>
@@ -3904,11 +3924,11 @@
         <v>73</v>
       </c>
       <c r="C43" s="28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>70.588235294117652</v>
       </c>
       <c r="D43" s="50">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>-3.4166666666666679E-2</v>
       </c>
       <c r="E43" s="52"/>
@@ -3917,7 +3937,7 @@
         <v>delete_booking</v>
       </c>
       <c r="G43" s="57">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>23.529411764705884</v>
       </c>
       <c r="H43" s="49">
@@ -3925,7 +3945,7 @@
         <v>21</v>
       </c>
       <c r="I43" s="26">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-0.1204481792717087</v>
       </c>
     </row>
@@ -3937,11 +3957,11 @@
         <v>326</v>
       </c>
       <c r="C44" s="28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>343.81900452488691</v>
       </c>
       <c r="D44" s="50">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>5.1826700357970212E-2</v>
       </c>
       <c r="E44" s="52"/>
@@ -3950,7 +3970,7 @@
         <v>logout</v>
       </c>
       <c r="G44" s="57">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>114.60633484162896</v>
       </c>
       <c r="H44" s="49">
@@ -3958,7 +3978,7 @@
         <v>109</v>
       </c>
       <c r="I44" s="26">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-5.1434264602100654E-2</v>
       </c>
     </row>
@@ -3970,11 +3990,11 @@
         <v>97</v>
       </c>
       <c r="C45" s="28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>92.307692307692307</v>
       </c>
       <c r="D45" s="50">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>-5.0833333333333286E-2</v>
       </c>
       <c r="E45" s="52"/>
@@ -3983,7 +4003,7 @@
         <v>click_sign_up_now</v>
       </c>
       <c r="G45" s="57">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>30.76923076923077</v>
       </c>
       <c r="H45" s="49">
@@ -3991,7 +4011,7 @@
         <v>30</v>
       </c>
       <c r="I45" s="26">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-2.5641025641025772E-2</v>
       </c>
     </row>
@@ -4003,11 +4023,11 @@
         <v>97</v>
       </c>
       <c r="C46" s="28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>92.307692307692307</v>
       </c>
       <c r="D46" s="50">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>-5.0833333333333286E-2</v>
       </c>
       <c r="E46" s="52"/>
@@ -4016,7 +4036,7 @@
         <v>data_usr</v>
       </c>
       <c r="G46" s="57">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>30.76923076923077</v>
       </c>
       <c r="H46" s="49">
@@ -4024,7 +4044,7 @@
         <v>30</v>
       </c>
       <c r="I46" s="26">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-2.5641025641025772E-2</v>
       </c>
     </row>
@@ -4036,11 +4056,11 @@
         <v>97</v>
       </c>
       <c r="C47" s="28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>92.307692307692307</v>
       </c>
       <c r="D47" s="50">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>-5.0833333333333286E-2</v>
       </c>
       <c r="E47" s="52"/>
@@ -4049,7 +4069,7 @@
         <v>welcome_new_usr</v>
       </c>
       <c r="G47" s="57">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>30.76923076923077</v>
       </c>
       <c r="H47" s="49">
@@ -4057,7 +4077,7 @@
         <v>30</v>
       </c>
       <c r="I47" s="26">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-2.5641025641025772E-2</v>
       </c>
     </row>
@@ -4074,7 +4094,7 @@
         <v>2908.0180995475121</v>
       </c>
       <c r="D48" s="25">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>-1.2373341300071949E-2</v>
       </c>
     </row>
@@ -4161,7 +4181,7 @@
         <v>25</v>
       </c>
       <c r="D53" s="33">
-        <f t="shared" ref="D53:D56" si="24">60/C53</f>
+        <f t="shared" ref="D53:D56" si="25">60/C53</f>
         <v>2.4</v>
       </c>
       <c r="E53" s="48">
@@ -4172,11 +4192,11 @@
         <v>1.0416666666666667</v>
       </c>
       <c r="G53" s="20">
-        <f t="shared" ref="G53:G56" si="25">ROUND(F53,0)</f>
+        <f t="shared" ref="G53:G56" si="26">ROUND(F53,0)</f>
         <v>1</v>
       </c>
       <c r="H53" s="20">
-        <f t="shared" ref="H53:H56" si="26">G53*D53*E53</f>
+        <f t="shared" ref="H53:H56" si="27">G53*D53*E53</f>
         <v>48</v>
       </c>
       <c r="I53" s="31">
@@ -4196,7 +4216,7 @@
         <v>115</v>
       </c>
       <c r="D54" s="33">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.52173913043478259</v>
       </c>
       <c r="E54" s="48">
@@ -4210,7 +4230,7 @@
         <v>1</v>
       </c>
       <c r="H54" s="20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>10.434782608695652</v>
       </c>
       <c r="I54" s="31">
@@ -4230,7 +4250,7 @@
         <v>180</v>
       </c>
       <c r="D55" s="33">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="E55" s="48">
@@ -4244,7 +4264,7 @@
         <v>1</v>
       </c>
       <c r="H55" s="20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>6.6666666666666661</v>
       </c>
       <c r="I55" s="31">
@@ -4264,7 +4284,7 @@
         <v>30</v>
       </c>
       <c r="D56" s="33">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2</v>
       </c>
       <c r="E56" s="48">
@@ -4275,11 +4295,11 @@
         <v>1</v>
       </c>
       <c r="G56" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="H56" s="20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>40</v>
       </c>
       <c r="I56" s="31">
